--- a/src/test/resources/Run_Manager_Change_Activity.xlsx
+++ b/src/test/resources/Run_Manager_Change_Activity.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Finalized Run Managers\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\EjarUAT\EJAR_UAT\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37164BF8-7486-462E-AE84-C61CA24C767C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E26D318-039F-44CA-957C-4E25286916B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="697" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1942" uniqueCount="602">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1942" uniqueCount="699">
   <si>
     <t>P_Key</t>
   </si>
@@ -4248,78 +4248,6 @@
     <t>AwqafApproveCommercialSubleaseByTenantLessThan3Months</t>
   </si>
   <si>
-    <t>WEB_TC_01</t>
-  </si>
-  <si>
-    <t>WEB_TC_02</t>
-  </si>
-  <si>
-    <t>WEB_TC_03</t>
-  </si>
-  <si>
-    <t>WEB_TC_04</t>
-  </si>
-  <si>
-    <t>WEB_TC_05</t>
-  </si>
-  <si>
-    <t>WEB_TC_06</t>
-  </si>
-  <si>
-    <t>WEB_TC_07</t>
-  </si>
-  <si>
-    <t>WEB_TC_08</t>
-  </si>
-  <si>
-    <t>WEB_TC_09</t>
-  </si>
-  <si>
-    <t>WEB_TC_10</t>
-  </si>
-  <si>
-    <t>WEB_TC_11</t>
-  </si>
-  <si>
-    <t>WEB_TC_12</t>
-  </si>
-  <si>
-    <t>WEB_TC_13</t>
-  </si>
-  <si>
-    <t>WEB_TC_14</t>
-  </si>
-  <si>
-    <t>WEB_TC_15</t>
-  </si>
-  <si>
-    <t>WEB_TC_16</t>
-  </si>
-  <si>
-    <t>WEB_TC_17</t>
-  </si>
-  <si>
-    <t>WEB_TC_18</t>
-  </si>
-  <si>
-    <t>WEB_TC_19</t>
-  </si>
-  <si>
-    <t>WEB_TC_20</t>
-  </si>
-  <si>
-    <t>WEB_TC_21</t>
-  </si>
-  <si>
-    <t>WEB_TC_22</t>
-  </si>
-  <si>
-    <t>WEB_TC_23</t>
-  </si>
-  <si>
-    <t>WEB_TC_24</t>
-  </si>
-  <si>
     <t>Submit</t>
   </si>
   <si>
@@ -4348,26 +4276,382 @@
   </si>
   <si>
     <t>Module 6</t>
+  </si>
+  <si>
+    <t>Contracts_TC_01</t>
+  </si>
+  <si>
+    <t>Contracts_TC_02</t>
+  </si>
+  <si>
+    <t>Contracts_TC_03</t>
+  </si>
+  <si>
+    <t>Contracts_TC_04</t>
+  </si>
+  <si>
+    <t>Contracts_TC_05</t>
+  </si>
+  <si>
+    <t>Contracts_TC_06</t>
+  </si>
+  <si>
+    <t>Contracts_TC_07</t>
+  </si>
+  <si>
+    <t>Contracts_TC_08</t>
+  </si>
+  <si>
+    <t>Contracts_TC_09</t>
+  </si>
+  <si>
+    <t>Contracts_TC_10</t>
+  </si>
+  <si>
+    <t>Contracts_TC_11</t>
+  </si>
+  <si>
+    <t>Contracts_TC_12</t>
+  </si>
+  <si>
+    <t>Contracts_TC_13</t>
+  </si>
+  <si>
+    <t>Contracts_TC_14</t>
+  </si>
+  <si>
+    <t>Contracts_TC_15</t>
+  </si>
+  <si>
+    <t>Contracts_TC_16</t>
+  </si>
+  <si>
+    <t>Contracts_TC_17</t>
+  </si>
+  <si>
+    <t>Contracts_TC_18</t>
+  </si>
+  <si>
+    <t>Contracts_TC_19</t>
+  </si>
+  <si>
+    <t>Contracts_TC_20</t>
+  </si>
+  <si>
+    <t>Contracts_TC_21</t>
+  </si>
+  <si>
+    <t>Contracts_TC_22</t>
+  </si>
+  <si>
+    <t>Contracts_TC_23</t>
+  </si>
+  <si>
+    <t>Contracts_TC_24</t>
+  </si>
+  <si>
+    <t>ChangeActivity_TC_01</t>
+  </si>
+  <si>
+    <t>ChangeActivity_TC_02</t>
+  </si>
+  <si>
+    <t>ChangeActivity_TC_03</t>
+  </si>
+  <si>
+    <t>ChangeActivity_TC_04</t>
+  </si>
+  <si>
+    <t>ChangeActivity_TC_05</t>
+  </si>
+  <si>
+    <t>ChangeActivity_TC_06</t>
+  </si>
+  <si>
+    <t>ChangeActivity_TC_07</t>
+  </si>
+  <si>
+    <t>ChangeActivity_TC_08</t>
+  </si>
+  <si>
+    <t>ChangeActivity_TC_09</t>
+  </si>
+  <si>
+    <t>ChangeActivity_TC_10</t>
+  </si>
+  <si>
+    <t>ChangeActivity_TC_11</t>
+  </si>
+  <si>
+    <t>ChangeActivity_TC_12</t>
+  </si>
+  <si>
+    <t>ChangeActivity_TC_13</t>
+  </si>
+  <si>
+    <t>ChangeActivity_TC_14</t>
+  </si>
+  <si>
+    <t>ChangeActivity_TC_15</t>
+  </si>
+  <si>
+    <t>ChangeActivity_TC_16</t>
+  </si>
+  <si>
+    <t>ChangeActivity_TC_17</t>
+  </si>
+  <si>
+    <t>ChangeActivity_TC_18</t>
+  </si>
+  <si>
+    <t>ChangeActivity_TC_19</t>
+  </si>
+  <si>
+    <t>ChangeActivity_TC_20</t>
+  </si>
+  <si>
+    <t>ChangeActivity_TC_21</t>
+  </si>
+  <si>
+    <t>ChangeActivity_TC_22</t>
+  </si>
+  <si>
+    <t>ChangeActivity_TC_23</t>
+  </si>
+  <si>
+    <t>ChangeActivity_TC_24</t>
+  </si>
+  <si>
+    <t>ChangeActivity_TC_25</t>
+  </si>
+  <si>
+    <t>ChangeActivity_TC_26</t>
+  </si>
+  <si>
+    <t>ChangeActivity_TC_27</t>
+  </si>
+  <si>
+    <t>ChangeActivity_TC_28</t>
+  </si>
+  <si>
+    <t>ChangeActivity_TC_29</t>
+  </si>
+  <si>
+    <t>ChangeActivity_TC_30</t>
+  </si>
+  <si>
+    <t>ChangeActivity_TC_31</t>
+  </si>
+  <si>
+    <t>ChangeActivity_TC_32</t>
+  </si>
+  <si>
+    <t>ChangeActivity_TC_33</t>
+  </si>
+  <si>
+    <t>ChangeActivity_TC_34</t>
+  </si>
+  <si>
+    <t>ChangeActivity_TC_35</t>
+  </si>
+  <si>
+    <t>ChangeActivity_TC_36</t>
+  </si>
+  <si>
+    <t>ChangeActivity_TC_37</t>
+  </si>
+  <si>
+    <t>ChangeActivity_TC_38</t>
+  </si>
+  <si>
+    <t>ChangeActivity_TC_39</t>
+  </si>
+  <si>
+    <t>ChangeActivity_TC_40</t>
+  </si>
+  <si>
+    <t>ChangeActivity_TC_41</t>
+  </si>
+  <si>
+    <t>ChangeActivity_TC_42</t>
+  </si>
+  <si>
+    <t>ChangeActivity_TC_43</t>
+  </si>
+  <si>
+    <t>ChangeActivity_TC_44</t>
+  </si>
+  <si>
+    <t>ChangeActivity_TC_45</t>
+  </si>
+  <si>
+    <t>ChangeActivity_TC_46</t>
+  </si>
+  <si>
+    <t>ChangeActivity_TC_47</t>
+  </si>
+  <si>
+    <t>ChangeActivity_TC_48</t>
+  </si>
+  <si>
+    <t>ChangeActivity_TC_49</t>
+  </si>
+  <si>
+    <t>ChangeActivity_TC_50</t>
+  </si>
+  <si>
+    <t>ChangeActivity_TC_51</t>
+  </si>
+  <si>
+    <t>ChangeActivity_TC_52</t>
+  </si>
+  <si>
+    <t>ChangeActivity_TC_53</t>
+  </si>
+  <si>
+    <t>ChangeActivity_TC_54</t>
+  </si>
+  <si>
+    <t>ChangeActivity_TC_55</t>
+  </si>
+  <si>
+    <t>ChangeActivity_TC_56</t>
+  </si>
+  <si>
+    <t>ChangeActivity_TC_57</t>
+  </si>
+  <si>
+    <t>ChangeActivity_TC_58</t>
+  </si>
+  <si>
+    <t>ChangeActivity_TC_59</t>
+  </si>
+  <si>
+    <t>ChangeActivity_TC_60</t>
+  </si>
+  <si>
+    <t>ChangeActivity_TC_61</t>
+  </si>
+  <si>
+    <t>ChangeActivity_TC_62</t>
+  </si>
+  <si>
+    <t>ChangeActivity_TC_63</t>
+  </si>
+  <si>
+    <t>ChangeActivity_TC_64</t>
+  </si>
+  <si>
+    <t>ChangeActivity_TC_65</t>
+  </si>
+  <si>
+    <t>ChangeActivity_TC_66</t>
+  </si>
+  <si>
+    <t>ChangeActivity_TC_67</t>
+  </si>
+  <si>
+    <t>ChangeActivity_TC_68</t>
+  </si>
+  <si>
+    <t>ChangeActivity_TC_69</t>
+  </si>
+  <si>
+    <t>ChangeActivity_TC_70</t>
+  </si>
+  <si>
+    <t>ChangeActivity_TC_71</t>
+  </si>
+  <si>
+    <t>ChangeActivity_TC_72</t>
+  </si>
+  <si>
+    <t>ChangeActivity_TC_73</t>
+  </si>
+  <si>
+    <t>ChangeActivity_TC_74</t>
+  </si>
+  <si>
+    <t>ChangeActivity_TC_75</t>
+  </si>
+  <si>
+    <t>ChangeActivity_TC_76</t>
+  </si>
+  <si>
+    <t>ChangeActivity_TC_77</t>
+  </si>
+  <si>
+    <t>ChangeActivity_TC_78</t>
+  </si>
+  <si>
+    <t>ChangeActivity_TC_79</t>
+  </si>
+  <si>
+    <t>ChangeActivity_TC_80</t>
+  </si>
+  <si>
+    <t>ChangeActivity_TC_81</t>
+  </si>
+  <si>
+    <t>ChangeActivity_TC_82</t>
+  </si>
+  <si>
+    <t>ChangeActivity_TC_83</t>
+  </si>
+  <si>
+    <t>ChangeActivity_TC_84</t>
+  </si>
+  <si>
+    <t>ChangeActivity_TC_85</t>
+  </si>
+  <si>
+    <t>ChangeActivity_TC_86</t>
+  </si>
+  <si>
+    <t>ChangeActivity_TC_87</t>
+  </si>
+  <si>
+    <t>ChangeActivity_TC_88</t>
+  </si>
+  <si>
+    <t>ChangeActivity_TC_89</t>
+  </si>
+  <si>
+    <t>ChangeActivity_TC_90</t>
+  </si>
+  <si>
+    <t>ChangeActivity_TC_91</t>
+  </si>
+  <si>
+    <t>ChangeActivity_TC_92</t>
+  </si>
+  <si>
+    <t>ChangeActivity_TC_93</t>
+  </si>
+  <si>
+    <t>ChangeActivity_TC_94</t>
+  </si>
+  <si>
+    <t>ChangeActivity_TC_95</t>
+  </si>
+  <si>
+    <t>ChangeActivity_TC_96</t>
+  </si>
+  <si>
+    <t>ChangeActivity_TC_97</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -4457,7 +4741,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="27">
+  <fills count="25">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4602,20 +4886,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -4675,61 +4947,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4738,28 +4962,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -4777,14 +5001,14 @@
     <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -4796,7 +5020,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4805,10 +5029,10 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4817,77 +5041,41 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -5358,11 +5546,11 @@
   <dimension ref="A1:M129"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="61" zoomScaleNormal="59" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B68" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="G5" sqref="G5"/>
       <selection pane="topRight" activeCell="G5" sqref="G5"/>
       <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
-      <selection pane="bottomRight" activeCell="K127" sqref="K127"/>
+      <selection pane="bottomRight" activeCell="F133" sqref="F133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5378,7 +5566,7 @@
     <col min="9" max="9" width="13.21875" style="3" customWidth="1"/>
     <col min="10" max="10" width="14.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.21875" style="51" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.21875" style="49" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="42.88671875" style="3" customWidth="1"/>
     <col min="14" max="16384" width="11.5546875" style="2"/>
   </cols>
@@ -5417,7 +5605,7 @@
       <c r="K1" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="50" t="s">
+      <c r="L1" s="48" t="s">
         <v>11</v>
       </c>
       <c r="M1" s="47" t="s">
@@ -5426,7 +5614,7 @@
     </row>
     <row r="2" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="43" t="s">
-        <v>596</v>
+        <v>572</v>
       </c>
       <c r="B2" s="44" t="s">
         <v>261</v>
@@ -5450,7 +5638,7 @@
         <v>12</v>
       </c>
       <c r="K2" s="46"/>
-      <c r="L2" s="52"/>
+      <c r="L2" s="50"/>
       <c r="M2" s="46"/>
     </row>
     <row r="3" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -5473,7 +5661,7 @@
         <v>282</v>
       </c>
       <c r="G3" s="41" t="s">
-        <v>568</v>
+        <v>578</v>
       </c>
       <c r="H3" s="38" t="s">
         <v>246</v>
@@ -5487,7 +5675,7 @@
       <c r="K3" s="38">
         <v>1</v>
       </c>
-      <c r="L3" s="62">
+      <c r="L3" s="54">
         <v>1</v>
       </c>
       <c r="M3" s="38"/>
@@ -5512,7 +5700,7 @@
         <v>285</v>
       </c>
       <c r="G4" s="41" t="s">
-        <v>569</v>
+        <v>579</v>
       </c>
       <c r="H4" s="38" t="s">
         <v>246</v>
@@ -5526,7 +5714,7 @@
       <c r="K4" s="38">
         <v>1</v>
       </c>
-      <c r="L4" s="62">
+      <c r="L4" s="54">
         <v>2</v>
       </c>
       <c r="M4" s="38"/>
@@ -5551,7 +5739,7 @@
         <v>288</v>
       </c>
       <c r="G5" s="41" t="s">
-        <v>570</v>
+        <v>580</v>
       </c>
       <c r="H5" s="38" t="s">
         <v>246</v>
@@ -5565,7 +5753,7 @@
       <c r="K5" s="38">
         <v>1</v>
       </c>
-      <c r="L5" s="62">
+      <c r="L5" s="54">
         <v>3</v>
       </c>
       <c r="M5" s="38"/>
@@ -5590,7 +5778,7 @@
         <v>282</v>
       </c>
       <c r="G6" s="41" t="s">
-        <v>571</v>
+        <v>581</v>
       </c>
       <c r="H6" s="38" t="s">
         <v>246</v>
@@ -5604,7 +5792,7 @@
       <c r="K6" s="38">
         <v>1</v>
       </c>
-      <c r="L6" s="62">
+      <c r="L6" s="54">
         <v>4</v>
       </c>
       <c r="M6" s="38"/>
@@ -5629,7 +5817,7 @@
         <v>285</v>
       </c>
       <c r="G7" s="41" t="s">
-        <v>572</v>
+        <v>582</v>
       </c>
       <c r="H7" s="38" t="s">
         <v>246</v>
@@ -5643,7 +5831,7 @@
       <c r="K7" s="38">
         <v>1</v>
       </c>
-      <c r="L7" s="62">
+      <c r="L7" s="54">
         <v>5</v>
       </c>
       <c r="M7" s="38"/>
@@ -5668,7 +5856,7 @@
         <v>288</v>
       </c>
       <c r="G8" s="41" t="s">
-        <v>573</v>
+        <v>583</v>
       </c>
       <c r="H8" s="38" t="s">
         <v>246</v>
@@ -5682,7 +5870,7 @@
       <c r="K8" s="38">
         <v>1</v>
       </c>
-      <c r="L8" s="62">
+      <c r="L8" s="54">
         <v>6</v>
       </c>
       <c r="M8" s="38"/>
@@ -5707,7 +5895,7 @@
         <v>294</v>
       </c>
       <c r="G9" s="41" t="s">
-        <v>574</v>
+        <v>584</v>
       </c>
       <c r="H9" s="38" t="s">
         <v>246</v>
@@ -5721,7 +5909,7 @@
       <c r="K9" s="38">
         <v>1</v>
       </c>
-      <c r="L9" s="62">
+      <c r="L9" s="54">
         <v>7</v>
       </c>
       <c r="M9" s="38"/>
@@ -5746,7 +5934,7 @@
         <v>295</v>
       </c>
       <c r="G10" s="41" t="s">
-        <v>575</v>
+        <v>585</v>
       </c>
       <c r="H10" s="38" t="s">
         <v>246</v>
@@ -5760,7 +5948,7 @@
       <c r="K10" s="38">
         <v>1</v>
       </c>
-      <c r="L10" s="62">
+      <c r="L10" s="54">
         <v>8</v>
       </c>
       <c r="M10" s="38"/>
@@ -5785,7 +5973,7 @@
         <v>296</v>
       </c>
       <c r="G11" s="41" t="s">
-        <v>576</v>
+        <v>586</v>
       </c>
       <c r="H11" s="38" t="s">
         <v>246</v>
@@ -5799,7 +5987,7 @@
       <c r="K11" s="38">
         <v>1</v>
       </c>
-      <c r="L11" s="62">
+      <c r="L11" s="54">
         <v>9</v>
       </c>
       <c r="M11" s="38"/>
@@ -5824,7 +6012,7 @@
         <v>294</v>
       </c>
       <c r="G12" s="41" t="s">
-        <v>577</v>
+        <v>587</v>
       </c>
       <c r="H12" s="38" t="s">
         <v>246</v>
@@ -5838,7 +6026,7 @@
       <c r="K12" s="38">
         <v>1</v>
       </c>
-      <c r="L12" s="62">
+      <c r="L12" s="54">
         <v>10</v>
       </c>
       <c r="M12" s="38"/>
@@ -5863,7 +6051,7 @@
         <v>295</v>
       </c>
       <c r="G13" s="41" t="s">
-        <v>578</v>
+        <v>588</v>
       </c>
       <c r="H13" s="38" t="s">
         <v>246</v>
@@ -5877,7 +6065,7 @@
       <c r="K13" s="38">
         <v>1</v>
       </c>
-      <c r="L13" s="62">
+      <c r="L13" s="54">
         <v>11</v>
       </c>
       <c r="M13" s="38"/>
@@ -5902,7 +6090,7 @@
         <v>296</v>
       </c>
       <c r="G14" s="41" t="s">
-        <v>579</v>
+        <v>589</v>
       </c>
       <c r="H14" s="38" t="s">
         <v>246</v>
@@ -5916,7 +6104,7 @@
       <c r="K14" s="38">
         <v>1</v>
       </c>
-      <c r="L14" s="62">
+      <c r="L14" s="54">
         <v>12</v>
       </c>
       <c r="M14" s="38"/>
@@ -5941,7 +6129,7 @@
         <v>307</v>
       </c>
       <c r="G15" s="41" t="s">
-        <v>580</v>
+        <v>590</v>
       </c>
       <c r="H15" s="38" t="s">
         <v>246</v>
@@ -5955,7 +6143,7 @@
       <c r="K15" s="38">
         <v>1</v>
       </c>
-      <c r="L15" s="62">
+      <c r="L15" s="54">
         <v>13</v>
       </c>
       <c r="M15" s="38"/>
@@ -5980,7 +6168,7 @@
         <v>308</v>
       </c>
       <c r="G16" s="41" t="s">
-        <v>581</v>
+        <v>591</v>
       </c>
       <c r="H16" s="38" t="s">
         <v>246</v>
@@ -5994,7 +6182,7 @@
       <c r="K16" s="38">
         <v>1</v>
       </c>
-      <c r="L16" s="62">
+      <c r="L16" s="54">
         <v>14</v>
       </c>
       <c r="M16" s="38"/>
@@ -6019,7 +6207,7 @@
         <v>309</v>
       </c>
       <c r="G17" s="41" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="H17" s="38" t="s">
         <v>246</v>
@@ -6033,7 +6221,7 @@
       <c r="K17" s="38">
         <v>1</v>
       </c>
-      <c r="L17" s="62">
+      <c r="L17" s="54">
         <v>15</v>
       </c>
       <c r="M17" s="38"/>
@@ -6058,7 +6246,7 @@
         <v>307</v>
       </c>
       <c r="G18" s="41" t="s">
-        <v>583</v>
+        <v>593</v>
       </c>
       <c r="H18" s="38" t="s">
         <v>246</v>
@@ -6072,7 +6260,7 @@
       <c r="K18" s="38">
         <v>1</v>
       </c>
-      <c r="L18" s="62">
+      <c r="L18" s="54">
         <v>16</v>
       </c>
       <c r="M18" s="38"/>
@@ -6097,7 +6285,7 @@
         <v>308</v>
       </c>
       <c r="G19" s="41" t="s">
-        <v>584</v>
+        <v>594</v>
       </c>
       <c r="H19" s="38" t="s">
         <v>246</v>
@@ -6111,7 +6299,7 @@
       <c r="K19" s="38">
         <v>1</v>
       </c>
-      <c r="L19" s="62">
+      <c r="L19" s="54">
         <v>17</v>
       </c>
       <c r="M19" s="38"/>
@@ -6136,7 +6324,7 @@
         <v>309</v>
       </c>
       <c r="G20" s="41" t="s">
-        <v>585</v>
+        <v>595</v>
       </c>
       <c r="H20" s="38" t="s">
         <v>246</v>
@@ -6150,7 +6338,7 @@
       <c r="K20" s="38">
         <v>1</v>
       </c>
-      <c r="L20" s="62">
+      <c r="L20" s="54">
         <v>18</v>
       </c>
       <c r="M20" s="38"/>
@@ -6175,7 +6363,7 @@
         <v>321</v>
       </c>
       <c r="G21" s="41" t="s">
-        <v>586</v>
+        <v>596</v>
       </c>
       <c r="H21" s="38" t="s">
         <v>246</v>
@@ -6189,7 +6377,7 @@
       <c r="K21" s="38">
         <v>1</v>
       </c>
-      <c r="L21" s="62">
+      <c r="L21" s="54">
         <v>19</v>
       </c>
       <c r="M21" s="38"/>
@@ -6214,7 +6402,7 @@
         <v>324</v>
       </c>
       <c r="G22" s="41" t="s">
-        <v>587</v>
+        <v>597</v>
       </c>
       <c r="H22" s="38" t="s">
         <v>246</v>
@@ -6228,7 +6416,7 @@
       <c r="K22" s="38">
         <v>1</v>
       </c>
-      <c r="L22" s="62">
+      <c r="L22" s="54">
         <v>20</v>
       </c>
       <c r="M22" s="38"/>
@@ -6253,7 +6441,7 @@
         <v>327</v>
       </c>
       <c r="G23" s="41" t="s">
-        <v>588</v>
+        <v>598</v>
       </c>
       <c r="H23" s="38" t="s">
         <v>246</v>
@@ -6267,7 +6455,7 @@
       <c r="K23" s="38">
         <v>1</v>
       </c>
-      <c r="L23" s="62">
+      <c r="L23" s="54">
         <v>21</v>
       </c>
       <c r="M23" s="38"/>
@@ -6292,7 +6480,7 @@
         <v>321</v>
       </c>
       <c r="G24" s="41" t="s">
-        <v>589</v>
+        <v>599</v>
       </c>
       <c r="H24" s="38" t="s">
         <v>246</v>
@@ -6306,7 +6494,7 @@
       <c r="K24" s="38">
         <v>1</v>
       </c>
-      <c r="L24" s="62">
+      <c r="L24" s="54">
         <v>22</v>
       </c>
       <c r="M24" s="38"/>
@@ -6331,7 +6519,7 @@
         <v>324</v>
       </c>
       <c r="G25" s="41" t="s">
-        <v>590</v>
+        <v>600</v>
       </c>
       <c r="H25" s="38" t="s">
         <v>246</v>
@@ -6345,7 +6533,7 @@
       <c r="K25" s="38">
         <v>1</v>
       </c>
-      <c r="L25" s="62">
+      <c r="L25" s="54">
         <v>23</v>
       </c>
       <c r="M25" s="38"/>
@@ -6370,7 +6558,7 @@
         <v>327</v>
       </c>
       <c r="G26" s="41" t="s">
-        <v>591</v>
+        <v>601</v>
       </c>
       <c r="H26" s="38" t="s">
         <v>246</v>
@@ -6384,13 +6572,13 @@
       <c r="K26" s="38">
         <v>1</v>
       </c>
-      <c r="L26" s="62">
+      <c r="L26" s="54">
         <v>24</v>
       </c>
       <c r="M26" s="38"/>
     </row>
     <row r="27" spans="1:13" s="41" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="60" t="s">
+      <c r="A27" s="52" t="s">
         <v>45</v>
       </c>
       <c r="B27" s="44" t="s">
@@ -6407,8 +6595,8 @@
       <c r="I27" s="46"/>
       <c r="J27" s="46"/>
       <c r="K27" s="46"/>
-      <c r="L27" s="61"/>
-      <c r="M27" s="61"/>
+      <c r="L27" s="53"/>
+      <c r="M27" s="53"/>
     </row>
     <row r="28" spans="1:13" s="41" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
@@ -6417,20 +6605,20 @@
       <c r="B28" s="41" t="s">
         <v>551</v>
       </c>
-      <c r="C28" s="54" t="s">
+      <c r="C28" s="41" t="s">
         <v>536</v>
       </c>
-      <c r="D28" s="54" t="s">
+      <c r="D28" s="41" t="s">
         <v>536</v>
       </c>
       <c r="E28" s="41" t="s">
         <v>333</v>
       </c>
-      <c r="F28" s="55" t="s">
+      <c r="F28" s="51" t="s">
         <v>336</v>
       </c>
-      <c r="G28" s="54" t="s">
-        <v>536</v>
+      <c r="G28" s="51" t="s">
+        <v>602</v>
       </c>
       <c r="H28" s="38" t="s">
         <v>246</v>
@@ -6444,7 +6632,7 @@
       <c r="K28" s="38">
         <v>1</v>
       </c>
-      <c r="L28" s="62">
+      <c r="L28" s="54">
         <v>25</v>
       </c>
     </row>
@@ -6455,20 +6643,20 @@
       <c r="B29" s="41" t="s">
         <v>551</v>
       </c>
-      <c r="C29" s="54" t="s">
+      <c r="C29" s="41" t="s">
         <v>537</v>
       </c>
-      <c r="D29" s="54" t="s">
+      <c r="D29" s="41" t="s">
         <v>537</v>
       </c>
       <c r="E29" s="41" t="s">
         <v>335</v>
       </c>
-      <c r="F29" s="55" t="s">
+      <c r="F29" s="51" t="s">
         <v>336</v>
       </c>
-      <c r="G29" s="54" t="s">
-        <v>537</v>
+      <c r="G29" s="51" t="s">
+        <v>603</v>
       </c>
       <c r="H29" s="38" t="s">
         <v>246</v>
@@ -6482,7 +6670,7 @@
       <c r="K29" s="38">
         <v>1</v>
       </c>
-      <c r="L29" s="62">
+      <c r="L29" s="54">
         <v>26</v>
       </c>
     </row>
@@ -6493,20 +6681,20 @@
       <c r="B30" s="41" t="s">
         <v>551</v>
       </c>
-      <c r="C30" s="54" t="s">
+      <c r="C30" s="41" t="s">
         <v>337</v>
       </c>
-      <c r="D30" s="54" t="s">
+      <c r="D30" s="41" t="s">
         <v>337</v>
       </c>
       <c r="E30" s="41" t="s">
         <v>338</v>
       </c>
-      <c r="F30" s="55" t="s">
+      <c r="F30" s="51" t="s">
         <v>336</v>
       </c>
-      <c r="G30" s="54" t="s">
-        <v>337</v>
+      <c r="G30" s="51" t="s">
+        <v>604</v>
       </c>
       <c r="H30" s="38" t="s">
         <v>246</v>
@@ -6520,7 +6708,7 @@
       <c r="K30" s="38">
         <v>1</v>
       </c>
-      <c r="L30" s="62">
+      <c r="L30" s="54">
         <v>27</v>
       </c>
     </row>
@@ -6531,20 +6719,20 @@
       <c r="B31" s="41" t="s">
         <v>551</v>
       </c>
-      <c r="C31" s="54" t="s">
+      <c r="C31" s="41" t="s">
         <v>339</v>
       </c>
-      <c r="D31" s="54" t="s">
+      <c r="D31" s="41" t="s">
         <v>339</v>
       </c>
       <c r="E31" s="41" t="s">
         <v>340</v>
       </c>
-      <c r="F31" s="55" t="s">
+      <c r="F31" s="51" t="s">
         <v>336</v>
       </c>
-      <c r="G31" s="54" t="s">
-        <v>339</v>
+      <c r="G31" s="51" t="s">
+        <v>605</v>
       </c>
       <c r="H31" s="38" t="s">
         <v>246</v>
@@ -6558,7 +6746,7 @@
       <c r="K31" s="38">
         <v>1</v>
       </c>
-      <c r="L31" s="62">
+      <c r="L31" s="54">
         <v>28</v>
       </c>
     </row>
@@ -6569,20 +6757,20 @@
       <c r="B32" s="41" t="s">
         <v>551</v>
       </c>
-      <c r="C32" s="65" t="s">
+      <c r="C32" s="41" t="s">
         <v>552</v>
       </c>
-      <c r="D32" s="65" t="s">
+      <c r="D32" s="41" t="s">
         <v>552</v>
       </c>
       <c r="E32" s="41" t="s">
         <v>343</v>
       </c>
-      <c r="F32" s="55" t="s">
+      <c r="F32" s="51" t="s">
         <v>336</v>
       </c>
-      <c r="G32" s="65" t="s">
-        <v>552</v>
+      <c r="G32" s="51" t="s">
+        <v>606</v>
       </c>
       <c r="H32" s="38" t="s">
         <v>246</v>
@@ -6596,7 +6784,7 @@
       <c r="K32" s="38">
         <v>1</v>
       </c>
-      <c r="L32" s="62">
+      <c r="L32" s="54">
         <v>29</v>
       </c>
     </row>
@@ -6607,20 +6795,20 @@
       <c r="B33" s="41" t="s">
         <v>551</v>
       </c>
-      <c r="C33" s="54" t="s">
+      <c r="C33" s="41" t="s">
         <v>344</v>
       </c>
-      <c r="D33" s="54" t="s">
+      <c r="D33" s="41" t="s">
         <v>344</v>
       </c>
       <c r="E33" s="41" t="s">
         <v>346</v>
       </c>
-      <c r="F33" s="55" t="s">
+      <c r="F33" s="51" t="s">
         <v>336</v>
       </c>
-      <c r="G33" s="54" t="s">
-        <v>344</v>
+      <c r="G33" s="51" t="s">
+        <v>607</v>
       </c>
       <c r="H33" s="38" t="s">
         <v>246</v>
@@ -6634,7 +6822,7 @@
       <c r="K33" s="38">
         <v>1</v>
       </c>
-      <c r="L33" s="62">
+      <c r="L33" s="54">
         <v>30</v>
       </c>
     </row>
@@ -6645,20 +6833,20 @@
       <c r="B34" s="41" t="s">
         <v>551</v>
       </c>
-      <c r="C34" s="54" t="s">
+      <c r="C34" s="41" t="s">
         <v>347</v>
       </c>
-      <c r="D34" s="54" t="s">
+      <c r="D34" s="41" t="s">
         <v>347</v>
       </c>
       <c r="E34" s="41" t="s">
         <v>348</v>
       </c>
-      <c r="F34" s="55" t="s">
+      <c r="F34" s="51" t="s">
         <v>336</v>
       </c>
-      <c r="G34" s="54" t="s">
-        <v>347</v>
+      <c r="G34" s="51" t="s">
+        <v>608</v>
       </c>
       <c r="H34" s="38" t="s">
         <v>246</v>
@@ -6672,7 +6860,7 @@
       <c r="K34" s="38">
         <v>1</v>
       </c>
-      <c r="L34" s="62">
+      <c r="L34" s="54">
         <v>31</v>
       </c>
     </row>
@@ -6683,20 +6871,20 @@
       <c r="B35" s="41" t="s">
         <v>551</v>
       </c>
-      <c r="C35" s="54" t="s">
+      <c r="C35" s="41" t="s">
         <v>349</v>
       </c>
-      <c r="D35" s="54" t="s">
+      <c r="D35" s="41" t="s">
         <v>349</v>
       </c>
       <c r="E35" s="41" t="s">
         <v>350</v>
       </c>
-      <c r="F35" s="55" t="s">
+      <c r="F35" s="51" t="s">
         <v>336</v>
       </c>
-      <c r="G35" s="54" t="s">
-        <v>349</v>
+      <c r="G35" s="51" t="s">
+        <v>609</v>
       </c>
       <c r="H35" s="38" t="s">
         <v>246</v>
@@ -6710,7 +6898,7 @@
       <c r="K35" s="38">
         <v>1</v>
       </c>
-      <c r="L35" s="62">
+      <c r="L35" s="54">
         <v>32</v>
       </c>
     </row>
@@ -6721,20 +6909,20 @@
       <c r="B36" s="41" t="s">
         <v>551</v>
       </c>
-      <c r="C36" s="54" t="s">
+      <c r="C36" s="41" t="s">
         <v>351</v>
       </c>
-      <c r="D36" s="54" t="s">
+      <c r="D36" s="41" t="s">
         <v>351</v>
       </c>
       <c r="E36" s="41" t="s">
         <v>352</v>
       </c>
-      <c r="F36" s="55" t="s">
+      <c r="F36" s="51" t="s">
         <v>336</v>
       </c>
-      <c r="G36" s="54" t="s">
-        <v>351</v>
+      <c r="G36" s="51" t="s">
+        <v>610</v>
       </c>
       <c r="H36" s="38" t="s">
         <v>246</v>
@@ -6748,7 +6936,7 @@
       <c r="K36" s="38">
         <v>1</v>
       </c>
-      <c r="L36" s="62">
+      <c r="L36" s="54">
         <v>33</v>
       </c>
     </row>
@@ -6759,20 +6947,20 @@
       <c r="B37" s="41" t="s">
         <v>551</v>
       </c>
-      <c r="C37" s="58" t="s">
+      <c r="C37" s="41" t="s">
         <v>353</v>
       </c>
-      <c r="D37" s="58" t="s">
+      <c r="D37" s="41" t="s">
         <v>353</v>
       </c>
       <c r="E37" s="41" t="s">
         <v>355</v>
       </c>
-      <c r="F37" s="55" t="s">
+      <c r="F37" s="51" t="s">
         <v>336</v>
       </c>
-      <c r="G37" s="58" t="s">
-        <v>353</v>
+      <c r="G37" s="51" t="s">
+        <v>611</v>
       </c>
       <c r="H37" s="38" t="s">
         <v>246</v>
@@ -6786,7 +6974,7 @@
       <c r="K37" s="38">
         <v>1</v>
       </c>
-      <c r="L37" s="62">
+      <c r="L37" s="54">
         <v>34</v>
       </c>
     </row>
@@ -6797,20 +6985,20 @@
       <c r="B38" s="41" t="s">
         <v>551</v>
       </c>
-      <c r="C38" s="54" t="s">
+      <c r="C38" s="41" t="s">
         <v>356</v>
       </c>
-      <c r="D38" s="54" t="s">
+      <c r="D38" s="41" t="s">
         <v>356</v>
       </c>
       <c r="E38" s="41" t="s">
         <v>358</v>
       </c>
-      <c r="F38" s="55" t="s">
+      <c r="F38" s="51" t="s">
         <v>336</v>
       </c>
-      <c r="G38" s="54" t="s">
-        <v>356</v>
+      <c r="G38" s="51" t="s">
+        <v>612</v>
       </c>
       <c r="H38" s="38" t="s">
         <v>246</v>
@@ -6824,7 +7012,7 @@
       <c r="K38" s="38">
         <v>1</v>
       </c>
-      <c r="L38" s="62">
+      <c r="L38" s="54">
         <v>35</v>
       </c>
     </row>
@@ -6835,20 +7023,20 @@
       <c r="B39" s="41" t="s">
         <v>551</v>
       </c>
-      <c r="C39" s="66" t="s">
+      <c r="C39" s="41" t="s">
         <v>359</v>
       </c>
-      <c r="D39" s="66" t="s">
+      <c r="D39" s="41" t="s">
         <v>359</v>
       </c>
       <c r="E39" s="41" t="s">
         <v>361</v>
       </c>
-      <c r="F39" s="55" t="s">
+      <c r="F39" s="51" t="s">
         <v>336</v>
       </c>
-      <c r="G39" s="66" t="s">
-        <v>359</v>
+      <c r="G39" s="51" t="s">
+        <v>613</v>
       </c>
       <c r="H39" s="38" t="s">
         <v>246</v>
@@ -6862,7 +7050,7 @@
       <c r="K39" s="38">
         <v>1</v>
       </c>
-      <c r="L39" s="62">
+      <c r="L39" s="54">
         <v>36</v>
       </c>
     </row>
@@ -6873,20 +7061,20 @@
       <c r="B40" s="41" t="s">
         <v>551</v>
       </c>
-      <c r="C40" s="67" t="s">
+      <c r="C40" s="41" t="s">
         <v>362</v>
       </c>
-      <c r="D40" s="67" t="s">
+      <c r="D40" s="41" t="s">
         <v>362</v>
       </c>
       <c r="E40" s="41" t="s">
         <v>363</v>
       </c>
-      <c r="F40" s="55" t="s">
+      <c r="F40" s="51" t="s">
         <v>336</v>
       </c>
-      <c r="G40" s="67" t="s">
-        <v>362</v>
+      <c r="G40" s="51" t="s">
+        <v>614</v>
       </c>
       <c r="H40" s="38" t="s">
         <v>246</v>
@@ -6900,7 +7088,7 @@
       <c r="K40" s="38">
         <v>1</v>
       </c>
-      <c r="L40" s="62">
+      <c r="L40" s="54">
         <v>37</v>
       </c>
     </row>
@@ -6911,20 +7099,20 @@
       <c r="B41" s="41" t="s">
         <v>551</v>
       </c>
-      <c r="C41" s="54" t="s">
+      <c r="C41" s="41" t="s">
         <v>364</v>
       </c>
-      <c r="D41" s="54" t="s">
+      <c r="D41" s="41" t="s">
         <v>364</v>
       </c>
       <c r="E41" s="41" t="s">
         <v>365</v>
       </c>
-      <c r="F41" s="55" t="s">
+      <c r="F41" s="51" t="s">
         <v>336</v>
       </c>
-      <c r="G41" s="54" t="s">
-        <v>364</v>
+      <c r="G41" s="51" t="s">
+        <v>615</v>
       </c>
       <c r="H41" s="38" t="s">
         <v>246</v>
@@ -6938,7 +7126,7 @@
       <c r="K41" s="38">
         <v>1</v>
       </c>
-      <c r="L41" s="62">
+      <c r="L41" s="54">
         <v>38</v>
       </c>
     </row>
@@ -6949,20 +7137,20 @@
       <c r="B42" s="41" t="s">
         <v>551</v>
       </c>
-      <c r="C42" s="54" t="s">
+      <c r="C42" s="41" t="s">
         <v>366</v>
       </c>
-      <c r="D42" s="54" t="s">
+      <c r="D42" s="41" t="s">
         <v>366</v>
       </c>
       <c r="E42" s="41" t="s">
         <v>367</v>
       </c>
-      <c r="F42" s="55" t="s">
+      <c r="F42" s="51" t="s">
         <v>336</v>
       </c>
-      <c r="G42" s="54" t="s">
-        <v>366</v>
+      <c r="G42" s="51" t="s">
+        <v>616</v>
       </c>
       <c r="H42" s="38" t="s">
         <v>246</v>
@@ -6976,7 +7164,7 @@
       <c r="K42" s="38">
         <v>1</v>
       </c>
-      <c r="L42" s="62">
+      <c r="L42" s="54">
         <v>39</v>
       </c>
     </row>
@@ -6987,20 +7175,20 @@
       <c r="B43" s="41" t="s">
         <v>551</v>
       </c>
-      <c r="C43" s="54" t="s">
+      <c r="C43" s="41" t="s">
         <v>490</v>
       </c>
-      <c r="D43" s="54" t="s">
+      <c r="D43" s="41" t="s">
         <v>490</v>
       </c>
       <c r="E43" s="41" t="s">
         <v>368</v>
       </c>
-      <c r="F43" s="55" t="s">
+      <c r="F43" s="51" t="s">
         <v>336</v>
       </c>
-      <c r="G43" s="54" t="s">
-        <v>490</v>
+      <c r="G43" s="51" t="s">
+        <v>617</v>
       </c>
       <c r="H43" s="38" t="s">
         <v>246</v>
@@ -7014,7 +7202,7 @@
       <c r="K43" s="38">
         <v>1</v>
       </c>
-      <c r="L43" s="62">
+      <c r="L43" s="54">
         <v>40</v>
       </c>
     </row>
@@ -7025,20 +7213,20 @@
       <c r="B44" s="41" t="s">
         <v>551</v>
       </c>
-      <c r="C44" s="54" t="s">
+      <c r="C44" s="41" t="s">
         <v>369</v>
       </c>
-      <c r="D44" s="54" t="s">
+      <c r="D44" s="41" t="s">
         <v>369</v>
       </c>
       <c r="E44" s="41" t="s">
         <v>370</v>
       </c>
-      <c r="F44" s="55" t="s">
+      <c r="F44" s="51" t="s">
         <v>336</v>
       </c>
-      <c r="G44" s="54" t="s">
-        <v>369</v>
+      <c r="G44" s="51" t="s">
+        <v>618</v>
       </c>
       <c r="H44" s="38" t="s">
         <v>246</v>
@@ -7052,7 +7240,7 @@
       <c r="K44" s="38">
         <v>1</v>
       </c>
-      <c r="L44" s="62">
+      <c r="L44" s="54">
         <v>41</v>
       </c>
     </row>
@@ -7063,20 +7251,20 @@
       <c r="B45" s="41" t="s">
         <v>551</v>
       </c>
-      <c r="C45" s="54" t="s">
+      <c r="C45" s="41" t="s">
         <v>493</v>
       </c>
-      <c r="D45" s="54" t="s">
+      <c r="D45" s="41" t="s">
         <v>493</v>
       </c>
       <c r="E45" s="41" t="s">
         <v>371</v>
       </c>
-      <c r="F45" s="55" t="s">
+      <c r="F45" s="51" t="s">
         <v>336</v>
       </c>
-      <c r="G45" s="54" t="s">
-        <v>493</v>
+      <c r="G45" s="51" t="s">
+        <v>619</v>
       </c>
       <c r="H45" s="38" t="s">
         <v>246</v>
@@ -7090,7 +7278,7 @@
       <c r="K45" s="38">
         <v>1</v>
       </c>
-      <c r="L45" s="62">
+      <c r="L45" s="54">
         <v>42</v>
       </c>
     </row>
@@ -7101,20 +7289,20 @@
       <c r="B46" s="41" t="s">
         <v>551</v>
       </c>
-      <c r="C46" s="54" t="s">
+      <c r="C46" s="41" t="s">
         <v>495</v>
       </c>
-      <c r="D46" s="54" t="s">
+      <c r="D46" s="41" t="s">
         <v>495</v>
       </c>
       <c r="E46" s="41" t="s">
         <v>372</v>
       </c>
-      <c r="F46" s="55" t="s">
+      <c r="F46" s="51" t="s">
         <v>336</v>
       </c>
-      <c r="G46" s="54" t="s">
-        <v>495</v>
+      <c r="G46" s="51" t="s">
+        <v>620</v>
       </c>
       <c r="H46" s="38" t="s">
         <v>246</v>
@@ -7128,7 +7316,7 @@
       <c r="K46" s="38">
         <v>1</v>
       </c>
-      <c r="L46" s="62">
+      <c r="L46" s="54">
         <v>43</v>
       </c>
     </row>
@@ -7139,20 +7327,20 @@
       <c r="B47" s="41" t="s">
         <v>551</v>
       </c>
-      <c r="C47" s="54" t="s">
+      <c r="C47" s="41" t="s">
         <v>497</v>
       </c>
-      <c r="D47" s="54" t="s">
+      <c r="D47" s="41" t="s">
         <v>497</v>
       </c>
       <c r="E47" s="41" t="s">
         <v>373</v>
       </c>
-      <c r="F47" s="55" t="s">
+      <c r="F47" s="51" t="s">
         <v>336</v>
       </c>
-      <c r="G47" s="54" t="s">
-        <v>497</v>
+      <c r="G47" s="51" t="s">
+        <v>621</v>
       </c>
       <c r="H47" s="38" t="s">
         <v>246</v>
@@ -7166,7 +7354,7 @@
       <c r="K47" s="38">
         <v>1</v>
       </c>
-      <c r="L47" s="62">
+      <c r="L47" s="54">
         <v>44</v>
       </c>
     </row>
@@ -7177,20 +7365,20 @@
       <c r="B48" s="41" t="s">
         <v>551</v>
       </c>
-      <c r="C48" s="54" t="s">
+      <c r="C48" s="41" t="s">
         <v>538</v>
       </c>
-      <c r="D48" s="54" t="s">
+      <c r="D48" s="41" t="s">
         <v>538</v>
       </c>
       <c r="E48" s="41" t="s">
         <v>374</v>
       </c>
-      <c r="F48" s="55" t="s">
+      <c r="F48" s="51" t="s">
         <v>336</v>
       </c>
-      <c r="G48" s="54" t="s">
-        <v>538</v>
+      <c r="G48" s="51" t="s">
+        <v>622</v>
       </c>
       <c r="H48" s="38" t="s">
         <v>246</v>
@@ -7204,13 +7392,13 @@
       <c r="K48" s="38">
         <v>1</v>
       </c>
-      <c r="L48" s="62">
+      <c r="L48" s="54">
         <v>45</v>
       </c>
     </row>
     <row r="49" spans="1:13" s="41" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="60" t="s">
-        <v>597</v>
+      <c r="A49" s="52" t="s">
+        <v>573</v>
       </c>
       <c r="B49" s="44" t="s">
         <v>549</v>
@@ -7226,8 +7414,8 @@
       <c r="I49" s="46"/>
       <c r="J49" s="46"/>
       <c r="K49" s="46"/>
-      <c r="L49" s="61"/>
-      <c r="M49" s="61"/>
+      <c r="L49" s="53"/>
+      <c r="M49" s="53"/>
     </row>
     <row r="50" spans="1:13" s="41" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
@@ -7236,20 +7424,20 @@
       <c r="B50" s="41" t="s">
         <v>553</v>
       </c>
-      <c r="C50" s="54" t="s">
+      <c r="C50" s="41" t="s">
         <v>375</v>
       </c>
-      <c r="D50" s="54" t="s">
+      <c r="D50" s="41" t="s">
         <v>376</v>
       </c>
       <c r="E50" s="41" t="s">
         <v>377</v>
       </c>
-      <c r="F50" s="55" t="s">
+      <c r="F50" s="51" t="s">
         <v>334</v>
       </c>
-      <c r="G50" s="54" t="s">
-        <v>376</v>
+      <c r="G50" s="51" t="s">
+        <v>623</v>
       </c>
       <c r="H50" s="38" t="s">
         <v>246</v>
@@ -7257,13 +7445,13 @@
       <c r="I50" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="J50" s="64" t="s">
+      <c r="J50" s="56" t="s">
         <v>28</v>
       </c>
       <c r="K50" s="38">
         <v>1</v>
       </c>
-      <c r="L50" s="62">
+      <c r="L50" s="54">
         <v>46</v>
       </c>
     </row>
@@ -7274,20 +7462,20 @@
       <c r="B51" s="41" t="s">
         <v>553</v>
       </c>
-      <c r="C51" s="54" t="s">
+      <c r="C51" s="41" t="s">
         <v>378</v>
       </c>
-      <c r="D51" s="54" t="s">
+      <c r="D51" s="41" t="s">
         <v>379</v>
       </c>
       <c r="E51" s="41" t="s">
         <v>380</v>
       </c>
-      <c r="F51" s="55" t="s">
+      <c r="F51" s="51" t="s">
         <v>334</v>
       </c>
-      <c r="G51" s="54" t="s">
-        <v>379</v>
+      <c r="G51" s="51" t="s">
+        <v>624</v>
       </c>
       <c r="H51" s="38" t="s">
         <v>246</v>
@@ -7295,13 +7483,13 @@
       <c r="I51" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="J51" s="64" t="s">
+      <c r="J51" s="56" t="s">
         <v>28</v>
       </c>
       <c r="K51" s="38">
         <v>1</v>
       </c>
-      <c r="L51" s="62">
+      <c r="L51" s="54">
         <v>47</v>
       </c>
     </row>
@@ -7312,20 +7500,20 @@
       <c r="B52" s="41" t="s">
         <v>553</v>
       </c>
-      <c r="C52" s="54" t="s">
+      <c r="C52" s="41" t="s">
         <v>381</v>
       </c>
-      <c r="D52" s="54" t="s">
+      <c r="D52" s="41" t="s">
         <v>382</v>
       </c>
       <c r="E52" s="41" t="s">
         <v>383</v>
       </c>
-      <c r="F52" s="55" t="s">
+      <c r="F52" s="51" t="s">
         <v>334</v>
       </c>
-      <c r="G52" s="54" t="s">
-        <v>382</v>
+      <c r="G52" s="51" t="s">
+        <v>625</v>
       </c>
       <c r="H52" s="38" t="s">
         <v>246</v>
@@ -7333,13 +7521,13 @@
       <c r="I52" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="J52" s="64" t="s">
+      <c r="J52" s="56" t="s">
         <v>28</v>
       </c>
       <c r="K52" s="38">
         <v>1</v>
       </c>
-      <c r="L52" s="62">
+      <c r="L52" s="54">
         <v>48</v>
       </c>
     </row>
@@ -7350,20 +7538,20 @@
       <c r="B53" s="41" t="s">
         <v>553</v>
       </c>
-      <c r="C53" s="54" t="s">
+      <c r="C53" s="41" t="s">
         <v>384</v>
       </c>
-      <c r="D53" s="54" t="s">
+      <c r="D53" s="41" t="s">
         <v>385</v>
       </c>
       <c r="E53" s="41" t="s">
         <v>386</v>
       </c>
-      <c r="F53" s="55" t="s">
+      <c r="F53" s="51" t="s">
         <v>334</v>
       </c>
-      <c r="G53" s="54" t="s">
-        <v>385</v>
+      <c r="G53" s="51" t="s">
+        <v>626</v>
       </c>
       <c r="H53" s="38" t="s">
         <v>246</v>
@@ -7371,13 +7559,13 @@
       <c r="I53" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="J53" s="64" t="s">
+      <c r="J53" s="56" t="s">
         <v>28</v>
       </c>
       <c r="K53" s="38">
         <v>1</v>
       </c>
-      <c r="L53" s="62">
+      <c r="L53" s="54">
         <v>49</v>
       </c>
     </row>
@@ -7388,20 +7576,20 @@
       <c r="B54" s="41" t="s">
         <v>553</v>
       </c>
-      <c r="C54" s="54" t="s">
+      <c r="C54" s="41" t="s">
         <v>387</v>
       </c>
-      <c r="D54" s="54" t="s">
+      <c r="D54" s="41" t="s">
         <v>388</v>
       </c>
       <c r="E54" s="41" t="s">
         <v>389</v>
       </c>
-      <c r="F54" s="55" t="s">
+      <c r="F54" s="51" t="s">
         <v>334</v>
       </c>
-      <c r="G54" s="54" t="s">
-        <v>388</v>
+      <c r="G54" s="51" t="s">
+        <v>627</v>
       </c>
       <c r="H54" s="38" t="s">
         <v>246</v>
@@ -7409,13 +7597,13 @@
       <c r="I54" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="J54" s="64" t="s">
+      <c r="J54" s="56" t="s">
         <v>28</v>
       </c>
       <c r="K54" s="38">
         <v>1</v>
       </c>
-      <c r="L54" s="62">
+      <c r="L54" s="54">
         <v>50</v>
       </c>
     </row>
@@ -7426,20 +7614,20 @@
       <c r="B55" s="41" t="s">
         <v>553</v>
       </c>
-      <c r="C55" s="54" t="s">
+      <c r="C55" s="41" t="s">
         <v>390</v>
       </c>
-      <c r="D55" s="54" t="s">
+      <c r="D55" s="41" t="s">
         <v>391</v>
       </c>
       <c r="E55" s="41" t="s">
         <v>392</v>
       </c>
-      <c r="F55" s="55" t="s">
+      <c r="F55" s="51" t="s">
         <v>334</v>
       </c>
-      <c r="G55" s="54" t="s">
-        <v>391</v>
+      <c r="G55" s="51" t="s">
+        <v>628</v>
       </c>
       <c r="H55" s="38" t="s">
         <v>246</v>
@@ -7447,13 +7635,13 @@
       <c r="I55" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="64" t="s">
+      <c r="J55" s="56" t="s">
         <v>28</v>
       </c>
       <c r="K55" s="38">
         <v>1</v>
       </c>
-      <c r="L55" s="62">
+      <c r="L55" s="54">
         <v>51</v>
       </c>
     </row>
@@ -7464,20 +7652,20 @@
       <c r="B56" s="41" t="s">
         <v>553</v>
       </c>
-      <c r="C56" s="49" t="s">
+      <c r="C56" s="41" t="s">
         <v>393</v>
       </c>
-      <c r="D56" s="49" t="s">
+      <c r="D56" s="41" t="s">
         <v>394</v>
       </c>
       <c r="E56" s="41" t="s">
         <v>395</v>
       </c>
-      <c r="F56" s="55" t="s">
+      <c r="F56" s="51" t="s">
         <v>334</v>
       </c>
-      <c r="G56" s="49" t="s">
-        <v>394</v>
+      <c r="G56" s="51" t="s">
+        <v>629</v>
       </c>
       <c r="H56" s="38" t="s">
         <v>246</v>
@@ -7485,13 +7673,13 @@
       <c r="I56" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="J56" s="64" t="s">
+      <c r="J56" s="56" t="s">
         <v>28</v>
       </c>
       <c r="K56" s="38">
         <v>1</v>
       </c>
-      <c r="L56" s="62">
+      <c r="L56" s="54">
         <v>52</v>
       </c>
     </row>
@@ -7502,20 +7690,20 @@
       <c r="B57" s="41" t="s">
         <v>553</v>
       </c>
-      <c r="C57" s="54" t="s">
+      <c r="C57" s="41" t="s">
         <v>396</v>
       </c>
-      <c r="D57" s="54" t="s">
+      <c r="D57" s="41" t="s">
         <v>397</v>
       </c>
       <c r="E57" s="41" t="s">
         <v>398</v>
       </c>
-      <c r="F57" s="55" t="s">
+      <c r="F57" s="51" t="s">
         <v>334</v>
       </c>
-      <c r="G57" s="54" t="s">
-        <v>397</v>
+      <c r="G57" s="51" t="s">
+        <v>630</v>
       </c>
       <c r="H57" s="38" t="s">
         <v>246</v>
@@ -7523,13 +7711,13 @@
       <c r="I57" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="J57" s="64" t="s">
+      <c r="J57" s="56" t="s">
         <v>28</v>
       </c>
       <c r="K57" s="38">
         <v>1</v>
       </c>
-      <c r="L57" s="62">
+      <c r="L57" s="54">
         <v>53</v>
       </c>
     </row>
@@ -7540,20 +7728,20 @@
       <c r="B58" s="41" t="s">
         <v>553</v>
       </c>
-      <c r="C58" s="54" t="s">
+      <c r="C58" s="41" t="s">
         <v>399</v>
       </c>
-      <c r="D58" s="54" t="s">
+      <c r="D58" s="41" t="s">
         <v>400</v>
       </c>
       <c r="E58" s="41" t="s">
         <v>401</v>
       </c>
-      <c r="F58" s="55" t="s">
+      <c r="F58" s="51" t="s">
         <v>334</v>
       </c>
-      <c r="G58" s="54" t="s">
-        <v>400</v>
+      <c r="G58" s="51" t="s">
+        <v>631</v>
       </c>
       <c r="H58" s="38" t="s">
         <v>246</v>
@@ -7561,13 +7749,13 @@
       <c r="I58" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="J58" s="64" t="s">
+      <c r="J58" s="56" t="s">
         <v>28</v>
       </c>
       <c r="K58" s="38">
         <v>1</v>
       </c>
-      <c r="L58" s="62">
+      <c r="L58" s="54">
         <v>54</v>
       </c>
     </row>
@@ -7578,20 +7766,20 @@
       <c r="B59" s="41" t="s">
         <v>553</v>
       </c>
-      <c r="C59" s="49" t="s">
+      <c r="C59" s="41" t="s">
         <v>402</v>
       </c>
-      <c r="D59" s="49" t="s">
+      <c r="D59" s="41" t="s">
         <v>403</v>
       </c>
       <c r="E59" s="41" t="s">
         <v>404</v>
       </c>
-      <c r="F59" s="55" t="s">
+      <c r="F59" s="51" t="s">
         <v>334</v>
       </c>
-      <c r="G59" s="49" t="s">
-        <v>403</v>
+      <c r="G59" s="51" t="s">
+        <v>632</v>
       </c>
       <c r="H59" s="38" t="s">
         <v>246</v>
@@ -7599,13 +7787,13 @@
       <c r="I59" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="J59" s="64" t="s">
+      <c r="J59" s="56" t="s">
         <v>28</v>
       </c>
       <c r="K59" s="38">
         <v>1</v>
       </c>
-      <c r="L59" s="62">
+      <c r="L59" s="54">
         <v>55</v>
       </c>
     </row>
@@ -7616,20 +7804,20 @@
       <c r="B60" s="41" t="s">
         <v>553</v>
       </c>
-      <c r="C60" s="54" t="s">
+      <c r="C60" s="41" t="s">
         <v>405</v>
       </c>
-      <c r="D60" s="54" t="s">
+      <c r="D60" s="41" t="s">
         <v>406</v>
       </c>
       <c r="E60" s="41" t="s">
         <v>407</v>
       </c>
-      <c r="F60" s="55" t="s">
+      <c r="F60" s="51" t="s">
         <v>334</v>
       </c>
-      <c r="G60" s="54" t="s">
-        <v>406</v>
+      <c r="G60" s="51" t="s">
+        <v>633</v>
       </c>
       <c r="H60" s="38" t="s">
         <v>246</v>
@@ -7637,13 +7825,13 @@
       <c r="I60" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="J60" s="64" t="s">
+      <c r="J60" s="56" t="s">
         <v>28</v>
       </c>
       <c r="K60" s="38">
         <v>1</v>
       </c>
-      <c r="L60" s="62">
+      <c r="L60" s="54">
         <v>56</v>
       </c>
     </row>
@@ -7654,20 +7842,20 @@
       <c r="B61" s="41" t="s">
         <v>553</v>
       </c>
-      <c r="C61" s="54" t="s">
+      <c r="C61" s="41" t="s">
         <v>408</v>
       </c>
-      <c r="D61" s="54" t="s">
+      <c r="D61" s="41" t="s">
         <v>409</v>
       </c>
       <c r="E61" s="41" t="s">
         <v>410</v>
       </c>
-      <c r="F61" s="55" t="s">
+      <c r="F61" s="51" t="s">
         <v>334</v>
       </c>
-      <c r="G61" s="54" t="s">
-        <v>409</v>
+      <c r="G61" s="51" t="s">
+        <v>634</v>
       </c>
       <c r="H61" s="38" t="s">
         <v>246</v>
@@ -7675,13 +7863,13 @@
       <c r="I61" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="J61" s="64" t="s">
+      <c r="J61" s="56" t="s">
         <v>28</v>
       </c>
       <c r="K61" s="38">
         <v>1</v>
       </c>
-      <c r="L61" s="62">
+      <c r="L61" s="54">
         <v>57</v>
       </c>
     </row>
@@ -7692,20 +7880,20 @@
       <c r="B62" s="41" t="s">
         <v>553</v>
       </c>
-      <c r="C62" s="56" t="s">
+      <c r="C62" s="41" t="s">
         <v>411</v>
       </c>
-      <c r="D62" s="56" t="s">
+      <c r="D62" s="41" t="s">
         <v>412</v>
       </c>
       <c r="E62" s="41" t="s">
         <v>413</v>
       </c>
-      <c r="F62" s="55" t="s">
+      <c r="F62" s="51" t="s">
         <v>334</v>
       </c>
-      <c r="G62" s="56" t="s">
-        <v>412</v>
+      <c r="G62" s="51" t="s">
+        <v>635</v>
       </c>
       <c r="H62" s="38" t="s">
         <v>246</v>
@@ -7713,13 +7901,13 @@
       <c r="I62" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="J62" s="64" t="s">
+      <c r="J62" s="56" t="s">
         <v>28</v>
       </c>
       <c r="K62" s="38">
         <v>1</v>
       </c>
-      <c r="L62" s="62">
+      <c r="L62" s="54">
         <v>58</v>
       </c>
     </row>
@@ -7730,20 +7918,20 @@
       <c r="B63" s="41" t="s">
         <v>553</v>
       </c>
-      <c r="C63" s="49" t="s">
+      <c r="C63" s="41" t="s">
         <v>414</v>
       </c>
-      <c r="D63" s="49" t="s">
+      <c r="D63" s="41" t="s">
         <v>415</v>
       </c>
       <c r="E63" s="41" t="s">
         <v>416</v>
       </c>
-      <c r="F63" s="55" t="s">
+      <c r="F63" s="51" t="s">
         <v>334</v>
       </c>
-      <c r="G63" s="49" t="s">
-        <v>415</v>
+      <c r="G63" s="51" t="s">
+        <v>636</v>
       </c>
       <c r="H63" s="38" t="s">
         <v>246</v>
@@ -7751,13 +7939,13 @@
       <c r="I63" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="J63" s="64" t="s">
+      <c r="J63" s="56" t="s">
         <v>28</v>
       </c>
       <c r="K63" s="38">
         <v>1</v>
       </c>
-      <c r="L63" s="62">
+      <c r="L63" s="54">
         <v>59</v>
       </c>
     </row>
@@ -7768,20 +7956,20 @@
       <c r="B64" s="41" t="s">
         <v>553</v>
       </c>
-      <c r="C64" s="54" t="s">
+      <c r="C64" s="41" t="s">
         <v>417</v>
       </c>
-      <c r="D64" s="54" t="s">
+      <c r="D64" s="41" t="s">
         <v>418</v>
       </c>
       <c r="E64" s="41" t="s">
         <v>419</v>
       </c>
-      <c r="F64" s="55" t="s">
+      <c r="F64" s="51" t="s">
         <v>334</v>
       </c>
-      <c r="G64" s="54" t="s">
-        <v>418</v>
+      <c r="G64" s="51" t="s">
+        <v>637</v>
       </c>
       <c r="H64" s="38" t="s">
         <v>246</v>
@@ -7789,13 +7977,13 @@
       <c r="I64" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="J64" s="64" t="s">
+      <c r="J64" s="56" t="s">
         <v>28</v>
       </c>
       <c r="K64" s="38">
         <v>1</v>
       </c>
-      <c r="L64" s="62">
+      <c r="L64" s="54">
         <v>60</v>
       </c>
     </row>
@@ -7806,20 +7994,20 @@
       <c r="B65" s="41" t="s">
         <v>553</v>
       </c>
-      <c r="C65" s="54" t="s">
+      <c r="C65" s="41" t="s">
         <v>420</v>
       </c>
-      <c r="D65" s="54" t="s">
+      <c r="D65" s="41" t="s">
         <v>421</v>
       </c>
       <c r="E65" s="41" t="s">
         <v>422</v>
       </c>
-      <c r="F65" s="55" t="s">
+      <c r="F65" s="51" t="s">
         <v>334</v>
       </c>
-      <c r="G65" s="54" t="s">
-        <v>421</v>
+      <c r="G65" s="51" t="s">
+        <v>638</v>
       </c>
       <c r="H65" s="38" t="s">
         <v>246</v>
@@ -7827,13 +8015,13 @@
       <c r="I65" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="J65" s="64" t="s">
+      <c r="J65" s="56" t="s">
         <v>28</v>
       </c>
       <c r="K65" s="38">
         <v>1</v>
       </c>
-      <c r="L65" s="62">
+      <c r="L65" s="54">
         <v>61</v>
       </c>
     </row>
@@ -7844,20 +8032,20 @@
       <c r="B66" s="41" t="s">
         <v>553</v>
       </c>
-      <c r="C66" s="53" t="s">
+      <c r="C66" s="41" t="s">
         <v>423</v>
       </c>
-      <c r="D66" s="53" t="s">
+      <c r="D66" s="41" t="s">
         <v>424</v>
       </c>
       <c r="E66" s="41" t="s">
         <v>425</v>
       </c>
-      <c r="F66" s="55" t="s">
+      <c r="F66" s="51" t="s">
         <v>336</v>
       </c>
-      <c r="G66" s="53" t="s">
-        <v>424</v>
+      <c r="G66" s="51" t="s">
+        <v>639</v>
       </c>
       <c r="H66" s="38" t="s">
         <v>246</v>
@@ -7865,13 +8053,13 @@
       <c r="I66" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="J66" s="64" t="s">
+      <c r="J66" s="56" t="s">
         <v>28</v>
       </c>
       <c r="K66" s="38">
         <v>1</v>
       </c>
-      <c r="L66" s="62">
+      <c r="L66" s="54">
         <v>62</v>
       </c>
     </row>
@@ -7882,20 +8070,20 @@
       <c r="B67" s="41" t="s">
         <v>554</v>
       </c>
-      <c r="C67" s="54" t="s">
+      <c r="C67" s="41" t="s">
         <v>555</v>
       </c>
-      <c r="D67" s="54" t="s">
+      <c r="D67" s="41" t="s">
         <v>555</v>
       </c>
       <c r="E67" s="41" t="s">
         <v>532</v>
       </c>
-      <c r="F67" s="55" t="s">
+      <c r="F67" s="51" t="s">
         <v>334</v>
       </c>
-      <c r="G67" s="54" t="s">
-        <v>555</v>
+      <c r="G67" s="51" t="s">
+        <v>640</v>
       </c>
       <c r="H67" s="38" t="s">
         <v>246</v>
@@ -7903,13 +8091,13 @@
       <c r="I67" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="J67" s="64" t="s">
+      <c r="J67" s="56" t="s">
         <v>28</v>
       </c>
       <c r="K67" s="38">
         <v>1</v>
       </c>
-      <c r="L67" s="62">
+      <c r="L67" s="54">
         <v>63</v>
       </c>
     </row>
@@ -7920,20 +8108,20 @@
       <c r="B68" s="41" t="s">
         <v>554</v>
       </c>
-      <c r="C68" s="54" t="s">
+      <c r="C68" s="41" t="s">
         <v>541</v>
       </c>
-      <c r="D68" s="54" t="s">
+      <c r="D68" s="41" t="s">
         <v>541</v>
       </c>
       <c r="E68" s="41" t="s">
         <v>533</v>
       </c>
-      <c r="F68" s="55" t="s">
+      <c r="F68" s="51" t="s">
         <v>336</v>
       </c>
-      <c r="G68" s="54" t="s">
-        <v>541</v>
+      <c r="G68" s="51" t="s">
+        <v>641</v>
       </c>
       <c r="H68" s="38" t="s">
         <v>246</v>
@@ -7941,19 +8129,19 @@
       <c r="I68" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="J68" s="64" t="s">
+      <c r="J68" s="56" t="s">
         <v>28</v>
       </c>
       <c r="K68" s="38">
         <v>1</v>
       </c>
-      <c r="L68" s="62">
+      <c r="L68" s="54">
         <v>64</v>
       </c>
     </row>
     <row r="69" spans="1:13" s="41" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="60" t="s">
-        <v>598</v>
+      <c r="A69" s="52" t="s">
+        <v>574</v>
       </c>
       <c r="B69" s="44" t="s">
         <v>549</v>
@@ -7969,8 +8157,8 @@
       <c r="I69" s="46"/>
       <c r="J69" s="46"/>
       <c r="K69" s="46"/>
-      <c r="L69" s="61"/>
-      <c r="M69" s="61"/>
+      <c r="L69" s="53"/>
+      <c r="M69" s="53"/>
     </row>
     <row r="70" spans="1:13" s="41" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
@@ -7979,10 +8167,10 @@
       <c r="B70" s="41" t="s">
         <v>551</v>
       </c>
-      <c r="C70" s="68" t="s">
+      <c r="C70" s="41" t="s">
         <v>366</v>
       </c>
-      <c r="D70" s="68" t="s">
+      <c r="D70" s="41" t="s">
         <v>366</v>
       </c>
       <c r="E70" s="41" t="s">
@@ -7991,8 +8179,8 @@
       <c r="F70" s="41" t="s">
         <v>336</v>
       </c>
-      <c r="G70" s="68" t="s">
-        <v>366</v>
+      <c r="G70" s="51" t="s">
+        <v>642</v>
       </c>
       <c r="H70" s="38" t="s">
         <v>246</v>
@@ -8000,7 +8188,7 @@
       <c r="I70" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="J70" s="64" t="s">
+      <c r="J70" s="56" t="s">
         <v>28</v>
       </c>
       <c r="K70" s="38">
@@ -8017,20 +8205,20 @@
       <c r="B71" s="41" t="s">
         <v>556</v>
       </c>
-      <c r="C71" s="54" t="s">
+      <c r="C71" s="41" t="s">
         <v>426</v>
       </c>
-      <c r="D71" s="54" t="s">
+      <c r="D71" s="41" t="s">
         <v>427</v>
       </c>
       <c r="E71" s="41" t="s">
         <v>428</v>
       </c>
-      <c r="F71" s="55" t="s">
+      <c r="F71" s="51" t="s">
         <v>334</v>
       </c>
-      <c r="G71" s="54" t="s">
-        <v>427</v>
+      <c r="G71" s="51" t="s">
+        <v>643</v>
       </c>
       <c r="H71" s="38" t="s">
         <v>246</v>
@@ -8038,7 +8226,7 @@
       <c r="I71" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="J71" s="64" t="s">
+      <c r="J71" s="56" t="s">
         <v>28</v>
       </c>
       <c r="K71" s="38">
@@ -8055,20 +8243,20 @@
       <c r="B72" s="41" t="s">
         <v>556</v>
       </c>
-      <c r="C72" s="54" t="s">
+      <c r="C72" s="41" t="s">
         <v>429</v>
       </c>
-      <c r="D72" s="54" t="s">
+      <c r="D72" s="41" t="s">
         <v>430</v>
       </c>
       <c r="E72" s="41" t="s">
         <v>431</v>
       </c>
-      <c r="F72" s="55" t="s">
+      <c r="F72" s="51" t="s">
         <v>334</v>
       </c>
-      <c r="G72" s="54" t="s">
-        <v>430</v>
+      <c r="G72" s="51" t="s">
+        <v>644</v>
       </c>
       <c r="H72" s="38" t="s">
         <v>246</v>
@@ -8076,7 +8264,7 @@
       <c r="I72" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="J72" s="64" t="s">
+      <c r="J72" s="56" t="s">
         <v>28</v>
       </c>
       <c r="K72" s="38">
@@ -8093,20 +8281,20 @@
       <c r="B73" s="41" t="s">
         <v>556</v>
       </c>
-      <c r="C73" s="54" t="s">
+      <c r="C73" s="41" t="s">
         <v>432</v>
       </c>
-      <c r="D73" s="54" t="s">
+      <c r="D73" s="41" t="s">
         <v>433</v>
       </c>
       <c r="E73" s="41" t="s">
         <v>434</v>
       </c>
-      <c r="F73" s="55" t="s">
+      <c r="F73" s="51" t="s">
         <v>334</v>
       </c>
-      <c r="G73" s="54" t="s">
-        <v>433</v>
+      <c r="G73" s="51" t="s">
+        <v>645</v>
       </c>
       <c r="H73" s="38" t="s">
         <v>246</v>
@@ -8114,7 +8302,7 @@
       <c r="I73" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="J73" s="64" t="s">
+      <c r="J73" s="56" t="s">
         <v>28</v>
       </c>
       <c r="K73" s="38">
@@ -8131,20 +8319,20 @@
       <c r="B74" s="41" t="s">
         <v>556</v>
       </c>
-      <c r="C74" s="54" t="s">
+      <c r="C74" s="41" t="s">
         <v>435</v>
       </c>
-      <c r="D74" s="54" t="s">
+      <c r="D74" s="41" t="s">
         <v>436</v>
       </c>
       <c r="E74" s="41" t="s">
         <v>437</v>
       </c>
-      <c r="F74" s="55" t="s">
+      <c r="F74" s="51" t="s">
         <v>334</v>
       </c>
-      <c r="G74" s="54" t="s">
-        <v>436</v>
+      <c r="G74" s="51" t="s">
+        <v>646</v>
       </c>
       <c r="H74" s="38" t="s">
         <v>246</v>
@@ -8152,7 +8340,7 @@
       <c r="I74" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="J74" s="64" t="s">
+      <c r="J74" s="56" t="s">
         <v>28</v>
       </c>
       <c r="K74" s="38">
@@ -8169,20 +8357,20 @@
       <c r="B75" s="41" t="s">
         <v>556</v>
       </c>
-      <c r="C75" s="54" t="s">
+      <c r="C75" s="41" t="s">
         <v>438</v>
       </c>
-      <c r="D75" s="54" t="s">
+      <c r="D75" s="41" t="s">
         <v>439</v>
       </c>
       <c r="E75" s="41" t="s">
         <v>440</v>
       </c>
-      <c r="F75" s="55" t="s">
+      <c r="F75" s="51" t="s">
         <v>334</v>
       </c>
-      <c r="G75" s="54" t="s">
-        <v>439</v>
+      <c r="G75" s="51" t="s">
+        <v>647</v>
       </c>
       <c r="H75" s="38" t="s">
         <v>246</v>
@@ -8190,7 +8378,7 @@
       <c r="I75" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="J75" s="64" t="s">
+      <c r="J75" s="56" t="s">
         <v>28</v>
       </c>
       <c r="K75" s="38">
@@ -8207,20 +8395,20 @@
       <c r="B76" s="41" t="s">
         <v>556</v>
       </c>
-      <c r="C76" s="54" t="s">
+      <c r="C76" s="41" t="s">
         <v>441</v>
       </c>
-      <c r="D76" s="54" t="s">
+      <c r="D76" s="41" t="s">
         <v>442</v>
       </c>
       <c r="E76" s="41" t="s">
         <v>443</v>
       </c>
-      <c r="F76" s="55" t="s">
+      <c r="F76" s="51" t="s">
         <v>334</v>
       </c>
-      <c r="G76" s="54" t="s">
-        <v>442</v>
+      <c r="G76" s="51" t="s">
+        <v>648</v>
       </c>
       <c r="H76" s="38" t="s">
         <v>246</v>
@@ -8228,7 +8416,7 @@
       <c r="I76" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="J76" s="64" t="s">
+      <c r="J76" s="56" t="s">
         <v>28</v>
       </c>
       <c r="K76" s="38">
@@ -8245,20 +8433,20 @@
       <c r="B77" s="41" t="s">
         <v>556</v>
       </c>
-      <c r="C77" s="53" t="s">
+      <c r="C77" s="41" t="s">
         <v>444</v>
       </c>
-      <c r="D77" s="53" t="s">
+      <c r="D77" s="41" t="s">
         <v>445</v>
       </c>
       <c r="E77" s="41" t="s">
         <v>446</v>
       </c>
-      <c r="F77" s="55" t="s">
+      <c r="F77" s="51" t="s">
         <v>336</v>
       </c>
-      <c r="G77" s="53" t="s">
-        <v>445</v>
+      <c r="G77" s="51" t="s">
+        <v>649</v>
       </c>
       <c r="H77" s="38" t="s">
         <v>246</v>
@@ -8266,7 +8454,7 @@
       <c r="I77" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="J77" s="64" t="s">
+      <c r="J77" s="56" t="s">
         <v>28</v>
       </c>
       <c r="K77" s="38">
@@ -8283,20 +8471,20 @@
       <c r="B78" s="41" t="s">
         <v>554</v>
       </c>
-      <c r="C78" s="54" t="s">
+      <c r="C78" s="41" t="s">
         <v>540</v>
       </c>
-      <c r="D78" s="54" t="s">
+      <c r="D78" s="41" t="s">
         <v>540</v>
       </c>
       <c r="E78" s="41" t="s">
         <v>531</v>
       </c>
-      <c r="F78" s="55" t="s">
+      <c r="F78" s="51" t="s">
         <v>336</v>
       </c>
-      <c r="G78" s="54" t="s">
-        <v>540</v>
+      <c r="G78" s="51" t="s">
+        <v>650</v>
       </c>
       <c r="H78" s="38" t="s">
         <v>246</v>
@@ -8304,7 +8492,7 @@
       <c r="I78" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="J78" s="64" t="s">
+      <c r="J78" s="56" t="s">
         <v>28</v>
       </c>
       <c r="K78" s="38">
@@ -8315,8 +8503,8 @@
       </c>
     </row>
     <row r="79" spans="1:13" s="41" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="60" t="s">
-        <v>599</v>
+      <c r="A79" s="52" t="s">
+        <v>575</v>
       </c>
       <c r="B79" s="44" t="s">
         <v>549</v>
@@ -8332,8 +8520,8 @@
       <c r="I79" s="46"/>
       <c r="J79" s="46"/>
       <c r="K79" s="46"/>
-      <c r="L79" s="61"/>
-      <c r="M79" s="61"/>
+      <c r="L79" s="53"/>
+      <c r="M79" s="53"/>
     </row>
     <row r="80" spans="1:13" s="41" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
@@ -8342,20 +8530,20 @@
       <c r="B80" s="41" t="s">
         <v>558</v>
       </c>
-      <c r="C80" s="54" t="s">
+      <c r="C80" s="41" t="s">
         <v>447</v>
       </c>
-      <c r="D80" s="54" t="s">
+      <c r="D80" s="41" t="s">
         <v>448</v>
       </c>
       <c r="E80" s="41" t="s">
         <v>449</v>
       </c>
-      <c r="F80" s="55" t="s">
+      <c r="F80" s="51" t="s">
         <v>334</v>
       </c>
-      <c r="G80" s="54" t="s">
-        <v>448</v>
+      <c r="G80" s="51" t="s">
+        <v>651</v>
       </c>
       <c r="H80" s="38" t="s">
         <v>246</v>
@@ -8369,7 +8557,7 @@
       <c r="K80" s="38">
         <v>1</v>
       </c>
-      <c r="L80" s="62">
+      <c r="L80" s="54">
         <v>74</v>
       </c>
     </row>
@@ -8380,20 +8568,20 @@
       <c r="B81" s="41" t="s">
         <v>558</v>
       </c>
-      <c r="C81" s="54" t="s">
+      <c r="C81" s="41" t="s">
         <v>450</v>
       </c>
-      <c r="D81" s="54" t="s">
+      <c r="D81" s="41" t="s">
         <v>451</v>
       </c>
       <c r="E81" s="41" t="s">
         <v>452</v>
       </c>
-      <c r="F81" s="55" t="s">
+      <c r="F81" s="51" t="s">
         <v>334</v>
       </c>
-      <c r="G81" s="54" t="s">
-        <v>451</v>
+      <c r="G81" s="51" t="s">
+        <v>652</v>
       </c>
       <c r="H81" s="38" t="s">
         <v>246</v>
@@ -8407,7 +8595,7 @@
       <c r="K81" s="38">
         <v>1</v>
       </c>
-      <c r="L81" s="62">
+      <c r="L81" s="54">
         <v>75</v>
       </c>
     </row>
@@ -8418,20 +8606,20 @@
       <c r="B82" s="41" t="s">
         <v>558</v>
       </c>
-      <c r="C82" s="54" t="s">
+      <c r="C82" s="41" t="s">
         <v>453</v>
       </c>
-      <c r="D82" s="54" t="s">
+      <c r="D82" s="41" t="s">
         <v>454</v>
       </c>
       <c r="E82" s="41" t="s">
         <v>455</v>
       </c>
-      <c r="F82" s="55" t="s">
+      <c r="F82" s="51" t="s">
         <v>334</v>
       </c>
-      <c r="G82" s="54" t="s">
-        <v>454</v>
+      <c r="G82" s="51" t="s">
+        <v>653</v>
       </c>
       <c r="H82" s="38" t="s">
         <v>246</v>
@@ -8445,7 +8633,7 @@
       <c r="K82" s="38">
         <v>1</v>
       </c>
-      <c r="L82" s="62">
+      <c r="L82" s="54">
         <v>76</v>
       </c>
     </row>
@@ -8456,20 +8644,20 @@
       <c r="B83" s="41" t="s">
         <v>558</v>
       </c>
-      <c r="C83" s="54" t="s">
+      <c r="C83" s="41" t="s">
         <v>339</v>
       </c>
-      <c r="D83" s="54" t="s">
+      <c r="D83" s="41" t="s">
         <v>456</v>
       </c>
       <c r="E83" s="41" t="s">
         <v>457</v>
       </c>
-      <c r="F83" s="55" t="s">
+      <c r="F83" s="51" t="s">
         <v>334</v>
       </c>
-      <c r="G83" s="54" t="s">
-        <v>456</v>
+      <c r="G83" s="51" t="s">
+        <v>654</v>
       </c>
       <c r="H83" s="38" t="s">
         <v>246</v>
@@ -8483,7 +8671,7 @@
       <c r="K83" s="38">
         <v>1</v>
       </c>
-      <c r="L83" s="62">
+      <c r="L83" s="54">
         <v>77</v>
       </c>
     </row>
@@ -8494,20 +8682,20 @@
       <c r="B84" s="41" t="s">
         <v>558</v>
       </c>
-      <c r="C84" s="54" t="s">
+      <c r="C84" s="41" t="s">
         <v>341</v>
       </c>
-      <c r="D84" s="54" t="s">
+      <c r="D84" s="41" t="s">
         <v>342</v>
       </c>
       <c r="E84" s="41" t="s">
         <v>458</v>
       </c>
-      <c r="F84" s="55" t="s">
+      <c r="F84" s="51" t="s">
         <v>334</v>
       </c>
-      <c r="G84" s="54" t="s">
-        <v>342</v>
+      <c r="G84" s="51" t="s">
+        <v>655</v>
       </c>
       <c r="H84" s="38" t="s">
         <v>246</v>
@@ -8521,7 +8709,7 @@
       <c r="K84" s="38">
         <v>1</v>
       </c>
-      <c r="L84" s="62">
+      <c r="L84" s="54">
         <v>78</v>
       </c>
     </row>
@@ -8532,20 +8720,20 @@
       <c r="B85" s="41" t="s">
         <v>558</v>
       </c>
-      <c r="C85" s="54" t="s">
+      <c r="C85" s="41" t="s">
         <v>344</v>
       </c>
-      <c r="D85" s="54" t="s">
+      <c r="D85" s="41" t="s">
         <v>345</v>
       </c>
       <c r="E85" s="41" t="s">
         <v>459</v>
       </c>
-      <c r="F85" s="55" t="s">
+      <c r="F85" s="51" t="s">
         <v>334</v>
       </c>
-      <c r="G85" s="54" t="s">
-        <v>345</v>
+      <c r="G85" s="51" t="s">
+        <v>656</v>
       </c>
       <c r="H85" s="38" t="s">
         <v>246</v>
@@ -8559,7 +8747,7 @@
       <c r="K85" s="38">
         <v>1</v>
       </c>
-      <c r="L85" s="62">
+      <c r="L85" s="54">
         <v>79</v>
       </c>
     </row>
@@ -8570,20 +8758,20 @@
       <c r="B86" s="41" t="s">
         <v>558</v>
       </c>
-      <c r="C86" s="54" t="s">
+      <c r="C86" s="41" t="s">
         <v>460</v>
       </c>
-      <c r="D86" s="54" t="s">
+      <c r="D86" s="41" t="s">
         <v>461</v>
       </c>
       <c r="E86" s="41" t="s">
         <v>462</v>
       </c>
-      <c r="F86" s="55" t="s">
+      <c r="F86" s="51" t="s">
         <v>334</v>
       </c>
-      <c r="G86" s="54" t="s">
-        <v>461</v>
+      <c r="G86" s="51" t="s">
+        <v>657</v>
       </c>
       <c r="H86" s="38" t="s">
         <v>246</v>
@@ -8597,7 +8785,7 @@
       <c r="K86" s="38">
         <v>1</v>
       </c>
-      <c r="L86" s="62">
+      <c r="L86" s="54">
         <v>80</v>
       </c>
     </row>
@@ -8608,20 +8796,20 @@
       <c r="B87" s="41" t="s">
         <v>558</v>
       </c>
-      <c r="C87" s="54" t="s">
+      <c r="C87" s="41" t="s">
         <v>463</v>
       </c>
-      <c r="D87" s="54" t="s">
+      <c r="D87" s="41" t="s">
         <v>464</v>
       </c>
       <c r="E87" s="41" t="s">
         <v>465</v>
       </c>
-      <c r="F87" s="55" t="s">
+      <c r="F87" s="51" t="s">
         <v>334</v>
       </c>
-      <c r="G87" s="54" t="s">
-        <v>464</v>
+      <c r="G87" s="51" t="s">
+        <v>658</v>
       </c>
       <c r="H87" s="38" t="s">
         <v>246</v>
@@ -8635,7 +8823,7 @@
       <c r="K87" s="38">
         <v>1</v>
       </c>
-      <c r="L87" s="62">
+      <c r="L87" s="54">
         <v>81</v>
       </c>
     </row>
@@ -8646,20 +8834,20 @@
       <c r="B88" s="41" t="s">
         <v>558</v>
       </c>
-      <c r="C88" s="54" t="s">
+      <c r="C88" s="41" t="s">
         <v>466</v>
       </c>
-      <c r="D88" s="54" t="s">
+      <c r="D88" s="41" t="s">
         <v>467</v>
       </c>
       <c r="E88" s="41" t="s">
         <v>468</v>
       </c>
-      <c r="F88" s="55" t="s">
+      <c r="F88" s="51" t="s">
         <v>334</v>
       </c>
-      <c r="G88" s="54" t="s">
-        <v>467</v>
+      <c r="G88" s="51" t="s">
+        <v>659</v>
       </c>
       <c r="H88" s="38" t="s">
         <v>246</v>
@@ -8673,7 +8861,7 @@
       <c r="K88" s="38">
         <v>1</v>
       </c>
-      <c r="L88" s="62">
+      <c r="L88" s="54">
         <v>82</v>
       </c>
     </row>
@@ -8684,20 +8872,20 @@
       <c r="B89" s="41" t="s">
         <v>558</v>
       </c>
-      <c r="C89" s="49" t="s">
+      <c r="C89" s="41" t="s">
         <v>353</v>
       </c>
-      <c r="D89" s="49" t="s">
+      <c r="D89" s="41" t="s">
         <v>354</v>
       </c>
       <c r="E89" s="41" t="s">
         <v>469</v>
       </c>
-      <c r="F89" s="55" t="s">
+      <c r="F89" s="51" t="s">
         <v>334</v>
       </c>
-      <c r="G89" s="49" t="s">
-        <v>354</v>
+      <c r="G89" s="51" t="s">
+        <v>660</v>
       </c>
       <c r="H89" s="38" t="s">
         <v>246</v>
@@ -8711,7 +8899,7 @@
       <c r="K89" s="38">
         <v>1</v>
       </c>
-      <c r="L89" s="62">
+      <c r="L89" s="54">
         <v>83</v>
       </c>
     </row>
@@ -8722,20 +8910,20 @@
       <c r="B90" s="41" t="s">
         <v>558</v>
       </c>
-      <c r="C90" s="54" t="s">
+      <c r="C90" s="41" t="s">
         <v>356</v>
       </c>
-      <c r="D90" s="54" t="s">
+      <c r="D90" s="41" t="s">
         <v>357</v>
       </c>
       <c r="E90" s="41" t="s">
         <v>470</v>
       </c>
-      <c r="F90" s="55" t="s">
+      <c r="F90" s="51" t="s">
         <v>334</v>
       </c>
-      <c r="G90" s="54" t="s">
-        <v>357</v>
+      <c r="G90" s="51" t="s">
+        <v>661</v>
       </c>
       <c r="H90" s="38" t="s">
         <v>246</v>
@@ -8749,7 +8937,7 @@
       <c r="K90" s="38">
         <v>1</v>
       </c>
-      <c r="L90" s="62">
+      <c r="L90" s="54">
         <v>84</v>
       </c>
     </row>
@@ -8760,20 +8948,20 @@
       <c r="B91" s="41" t="s">
         <v>558</v>
       </c>
-      <c r="C91" s="48" t="s">
+      <c r="C91" s="41" t="s">
         <v>359</v>
       </c>
-      <c r="D91" s="48" t="s">
+      <c r="D91" s="41" t="s">
         <v>360</v>
       </c>
       <c r="E91" s="41" t="s">
         <v>471</v>
       </c>
-      <c r="F91" s="55" t="s">
+      <c r="F91" s="51" t="s">
         <v>334</v>
       </c>
-      <c r="G91" s="48" t="s">
-        <v>360</v>
+      <c r="G91" s="51" t="s">
+        <v>662</v>
       </c>
       <c r="H91" s="38" t="s">
         <v>246</v>
@@ -8787,7 +8975,7 @@
       <c r="K91" s="38">
         <v>1</v>
       </c>
-      <c r="L91" s="62">
+      <c r="L91" s="54">
         <v>85</v>
       </c>
     </row>
@@ -8798,20 +8986,20 @@
       <c r="B92" s="41" t="s">
         <v>558</v>
       </c>
-      <c r="C92" s="57" t="s">
+      <c r="C92" s="41" t="s">
         <v>472</v>
       </c>
-      <c r="D92" s="57" t="s">
+      <c r="D92" s="41" t="s">
         <v>473</v>
       </c>
       <c r="E92" s="41" t="s">
         <v>474</v>
       </c>
-      <c r="F92" s="55" t="s">
+      <c r="F92" s="51" t="s">
         <v>334</v>
       </c>
-      <c r="G92" s="57" t="s">
-        <v>473</v>
+      <c r="G92" s="51" t="s">
+        <v>663</v>
       </c>
       <c r="H92" s="38" t="s">
         <v>246</v>
@@ -8825,7 +9013,7 @@
       <c r="K92" s="38">
         <v>1</v>
       </c>
-      <c r="L92" s="62">
+      <c r="L92" s="54">
         <v>86</v>
       </c>
     </row>
@@ -8836,20 +9024,20 @@
       <c r="B93" s="41" t="s">
         <v>558</v>
       </c>
-      <c r="C93" s="54" t="s">
+      <c r="C93" s="41" t="s">
         <v>475</v>
       </c>
-      <c r="D93" s="54" t="s">
+      <c r="D93" s="41" t="s">
         <v>476</v>
       </c>
       <c r="E93" s="41" t="s">
         <v>477</v>
       </c>
-      <c r="F93" s="55" t="s">
+      <c r="F93" s="51" t="s">
         <v>334</v>
       </c>
-      <c r="G93" s="54" t="s">
-        <v>476</v>
+      <c r="G93" s="51" t="s">
+        <v>664</v>
       </c>
       <c r="H93" s="38" t="s">
         <v>246</v>
@@ -8863,7 +9051,7 @@
       <c r="K93" s="38">
         <v>1</v>
       </c>
-      <c r="L93" s="62">
+      <c r="L93" s="54">
         <v>87</v>
       </c>
     </row>
@@ -8874,20 +9062,20 @@
       <c r="B94" s="41" t="s">
         <v>558</v>
       </c>
-      <c r="C94" s="54" t="s">
+      <c r="C94" s="41" t="s">
         <v>478</v>
       </c>
-      <c r="D94" s="54" t="s">
+      <c r="D94" s="41" t="s">
         <v>479</v>
       </c>
       <c r="E94" s="41" t="s">
         <v>480</v>
       </c>
-      <c r="F94" s="55" t="s">
+      <c r="F94" s="51" t="s">
         <v>334</v>
       </c>
-      <c r="G94" s="54" t="s">
-        <v>479</v>
+      <c r="G94" s="51" t="s">
+        <v>665</v>
       </c>
       <c r="H94" s="38" t="s">
         <v>246</v>
@@ -8901,7 +9089,7 @@
       <c r="K94" s="38">
         <v>1</v>
       </c>
-      <c r="L94" s="62">
+      <c r="L94" s="54">
         <v>88</v>
       </c>
     </row>
@@ -8912,20 +9100,20 @@
       <c r="B95" s="41" t="s">
         <v>558</v>
       </c>
-      <c r="C95" s="54" t="s">
+      <c r="C95" s="41" t="s">
         <v>375</v>
       </c>
-      <c r="D95" s="54" t="s">
+      <c r="D95" s="41" t="s">
         <v>376</v>
       </c>
       <c r="E95" s="41" t="s">
         <v>481</v>
       </c>
-      <c r="F95" s="55" t="s">
+      <c r="F95" s="51" t="s">
         <v>334</v>
       </c>
-      <c r="G95" s="54" t="s">
-        <v>376</v>
+      <c r="G95" s="51" t="s">
+        <v>666</v>
       </c>
       <c r="H95" s="38" t="s">
         <v>246</v>
@@ -8939,7 +9127,7 @@
       <c r="K95" s="38">
         <v>1</v>
       </c>
-      <c r="L95" s="62">
+      <c r="L95" s="54">
         <v>89</v>
       </c>
     </row>
@@ -8950,20 +9138,20 @@
       <c r="B96" s="41" t="s">
         <v>558</v>
       </c>
-      <c r="C96" s="54" t="s">
+      <c r="C96" s="41" t="s">
         <v>378</v>
       </c>
-      <c r="D96" s="54" t="s">
+      <c r="D96" s="41" t="s">
         <v>379</v>
       </c>
       <c r="E96" s="41" t="s">
         <v>482</v>
       </c>
-      <c r="F96" s="55" t="s">
+      <c r="F96" s="51" t="s">
         <v>334</v>
       </c>
-      <c r="G96" s="54" t="s">
-        <v>379</v>
+      <c r="G96" s="51" t="s">
+        <v>667</v>
       </c>
       <c r="H96" s="38" t="s">
         <v>246</v>
@@ -8977,7 +9165,7 @@
       <c r="K96" s="38">
         <v>1</v>
       </c>
-      <c r="L96" s="62">
+      <c r="L96" s="54">
         <v>90</v>
       </c>
     </row>
@@ -8988,20 +9176,20 @@
       <c r="B97" s="41" t="s">
         <v>558</v>
       </c>
-      <c r="C97" s="54" t="s">
+      <c r="C97" s="41" t="s">
         <v>381</v>
       </c>
-      <c r="D97" s="54" t="s">
+      <c r="D97" s="41" t="s">
         <v>382</v>
       </c>
       <c r="E97" s="41" t="s">
         <v>483</v>
       </c>
-      <c r="F97" s="55" t="s">
+      <c r="F97" s="51" t="s">
         <v>334</v>
       </c>
-      <c r="G97" s="54" t="s">
-        <v>382</v>
+      <c r="G97" s="51" t="s">
+        <v>668</v>
       </c>
       <c r="H97" s="38" t="s">
         <v>246</v>
@@ -9015,7 +9203,7 @@
       <c r="K97" s="38">
         <v>1</v>
       </c>
-      <c r="L97" s="62">
+      <c r="L97" s="54">
         <v>91</v>
       </c>
     </row>
@@ -9026,20 +9214,20 @@
       <c r="B98" s="41" t="s">
         <v>558</v>
       </c>
-      <c r="C98" s="54" t="s">
+      <c r="C98" s="41" t="s">
         <v>384</v>
       </c>
-      <c r="D98" s="54" t="s">
+      <c r="D98" s="41" t="s">
         <v>385</v>
       </c>
       <c r="E98" s="41" t="s">
         <v>484</v>
       </c>
-      <c r="F98" s="55" t="s">
+      <c r="F98" s="51" t="s">
         <v>334</v>
       </c>
-      <c r="G98" s="54" t="s">
-        <v>385</v>
+      <c r="G98" s="51" t="s">
+        <v>669</v>
       </c>
       <c r="H98" s="38" t="s">
         <v>246</v>
@@ -9053,7 +9241,7 @@
       <c r="K98" s="38">
         <v>1</v>
       </c>
-      <c r="L98" s="62">
+      <c r="L98" s="54">
         <v>92</v>
       </c>
     </row>
@@ -9064,20 +9252,20 @@
       <c r="B99" s="41" t="s">
         <v>558</v>
       </c>
-      <c r="C99" s="54" t="s">
+      <c r="C99" s="41" t="s">
         <v>387</v>
       </c>
-      <c r="D99" s="54" t="s">
+      <c r="D99" s="41" t="s">
         <v>485</v>
       </c>
       <c r="E99" s="41" t="s">
         <v>486</v>
       </c>
-      <c r="F99" s="55" t="s">
+      <c r="F99" s="51" t="s">
         <v>334</v>
       </c>
-      <c r="G99" s="54" t="s">
-        <v>485</v>
+      <c r="G99" s="51" t="s">
+        <v>670</v>
       </c>
       <c r="H99" s="38" t="s">
         <v>246</v>
@@ -9091,7 +9279,7 @@
       <c r="K99" s="38">
         <v>1</v>
       </c>
-      <c r="L99" s="62">
+      <c r="L99" s="54">
         <v>93</v>
       </c>
     </row>
@@ -9102,20 +9290,20 @@
       <c r="B100" s="41" t="s">
         <v>558</v>
       </c>
-      <c r="C100" s="54" t="s">
+      <c r="C100" s="41" t="s">
         <v>487</v>
       </c>
-      <c r="D100" s="54" t="s">
+      <c r="D100" s="41" t="s">
         <v>488</v>
       </c>
       <c r="E100" s="41" t="s">
         <v>489</v>
       </c>
-      <c r="F100" s="55" t="s">
+      <c r="F100" s="51" t="s">
         <v>334</v>
       </c>
-      <c r="G100" s="54" t="s">
-        <v>488</v>
+      <c r="G100" s="51" t="s">
+        <v>671</v>
       </c>
       <c r="H100" s="38" t="s">
         <v>246</v>
@@ -9129,13 +9317,13 @@
       <c r="K100" s="38">
         <v>1</v>
       </c>
-      <c r="L100" s="62">
+      <c r="L100" s="54">
         <v>94</v>
       </c>
     </row>
     <row r="101" spans="1:13" s="41" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="60" t="s">
-        <v>600</v>
+      <c r="A101" s="52" t="s">
+        <v>576</v>
       </c>
       <c r="B101" s="44" t="s">
         <v>549</v>
@@ -9151,8 +9339,8 @@
       <c r="I101" s="44"/>
       <c r="J101" s="44"/>
       <c r="K101" s="44"/>
-      <c r="L101" s="61"/>
-      <c r="M101" s="61"/>
+      <c r="L101" s="53"/>
+      <c r="M101" s="53"/>
     </row>
     <row r="102" spans="1:13" s="41" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="40">
@@ -9161,20 +9349,20 @@
       <c r="B102" s="41" t="s">
         <v>559</v>
       </c>
-      <c r="C102" s="54" t="s">
+      <c r="C102" s="41" t="s">
         <v>490</v>
       </c>
-      <c r="D102" s="54" t="s">
+      <c r="D102" s="41" t="s">
         <v>490</v>
       </c>
       <c r="E102" s="41" t="s">
         <v>491</v>
       </c>
-      <c r="F102" s="55" t="s">
+      <c r="F102" s="51" t="s">
         <v>336</v>
       </c>
-      <c r="G102" s="54" t="s">
-        <v>490</v>
+      <c r="G102" s="51" t="s">
+        <v>672</v>
       </c>
       <c r="H102" s="38" t="s">
         <v>246</v>
@@ -9188,7 +9376,7 @@
       <c r="K102" s="38">
         <v>1</v>
       </c>
-      <c r="L102" s="62">
+      <c r="L102" s="54">
         <v>95</v>
       </c>
     </row>
@@ -9199,20 +9387,20 @@
       <c r="B103" s="41" t="s">
         <v>559</v>
       </c>
-      <c r="C103" s="54" t="s">
+      <c r="C103" s="41" t="s">
         <v>369</v>
       </c>
-      <c r="D103" s="54" t="s">
+      <c r="D103" s="41" t="s">
         <v>369</v>
       </c>
       <c r="E103" s="41" t="s">
         <v>492</v>
       </c>
-      <c r="F103" s="55" t="s">
+      <c r="F103" s="51" t="s">
         <v>336</v>
       </c>
-      <c r="G103" s="54" t="s">
-        <v>369</v>
+      <c r="G103" s="51" t="s">
+        <v>673</v>
       </c>
       <c r="H103" s="38" t="s">
         <v>246</v>
@@ -9226,7 +9414,7 @@
       <c r="K103" s="38">
         <v>1</v>
       </c>
-      <c r="L103" s="62">
+      <c r="L103" s="54">
         <v>96</v>
       </c>
     </row>
@@ -9237,20 +9425,20 @@
       <c r="B104" s="41" t="s">
         <v>559</v>
       </c>
-      <c r="C104" s="54" t="s">
+      <c r="C104" s="41" t="s">
         <v>493</v>
       </c>
-      <c r="D104" s="54" t="s">
+      <c r="D104" s="41" t="s">
         <v>493</v>
       </c>
       <c r="E104" s="41" t="s">
         <v>494</v>
       </c>
-      <c r="F104" s="55" t="s">
+      <c r="F104" s="51" t="s">
         <v>336</v>
       </c>
-      <c r="G104" s="54" t="s">
-        <v>493</v>
+      <c r="G104" s="51" t="s">
+        <v>674</v>
       </c>
       <c r="H104" s="38" t="s">
         <v>246</v>
@@ -9264,7 +9452,7 @@
       <c r="K104" s="38">
         <v>1</v>
       </c>
-      <c r="L104" s="62">
+      <c r="L104" s="54">
         <v>97</v>
       </c>
     </row>
@@ -9275,20 +9463,20 @@
       <c r="B105" s="41" t="s">
         <v>559</v>
       </c>
-      <c r="C105" s="54" t="s">
+      <c r="C105" s="41" t="s">
         <v>495</v>
       </c>
-      <c r="D105" s="54" t="s">
+      <c r="D105" s="41" t="s">
         <v>495</v>
       </c>
       <c r="E105" s="41" t="s">
         <v>496</v>
       </c>
-      <c r="F105" s="55" t="s">
+      <c r="F105" s="51" t="s">
         <v>336</v>
       </c>
-      <c r="G105" s="54" t="s">
-        <v>495</v>
+      <c r="G105" s="51" t="s">
+        <v>675</v>
       </c>
       <c r="H105" s="38" t="s">
         <v>246</v>
@@ -9302,7 +9490,7 @@
       <c r="K105" s="38">
         <v>1</v>
       </c>
-      <c r="L105" s="62">
+      <c r="L105" s="54">
         <v>98</v>
       </c>
     </row>
@@ -9313,20 +9501,20 @@
       <c r="B106" s="41" t="s">
         <v>559</v>
       </c>
-      <c r="C106" s="54" t="s">
+      <c r="C106" s="41" t="s">
         <v>497</v>
       </c>
-      <c r="D106" s="54" t="s">
+      <c r="D106" s="41" t="s">
         <v>497</v>
       </c>
       <c r="E106" s="41" t="s">
         <v>498</v>
       </c>
-      <c r="F106" s="55" t="s">
+      <c r="F106" s="51" t="s">
         <v>336</v>
       </c>
-      <c r="G106" s="54" t="s">
-        <v>497</v>
+      <c r="G106" s="51" t="s">
+        <v>676</v>
       </c>
       <c r="H106" s="38" t="s">
         <v>246</v>
@@ -9340,7 +9528,7 @@
       <c r="K106" s="38">
         <v>1</v>
       </c>
-      <c r="L106" s="62">
+      <c r="L106" s="54">
         <v>99</v>
       </c>
     </row>
@@ -9351,20 +9539,20 @@
       <c r="B107" s="41" t="s">
         <v>559</v>
       </c>
-      <c r="C107" s="54" t="s">
+      <c r="C107" s="41" t="s">
         <v>499</v>
       </c>
-      <c r="D107" s="54" t="s">
+      <c r="D107" s="41" t="s">
         <v>499</v>
       </c>
       <c r="E107" s="41" t="s">
         <v>500</v>
       </c>
-      <c r="F107" s="55" t="s">
+      <c r="F107" s="51" t="s">
         <v>336</v>
       </c>
-      <c r="G107" s="54" t="s">
-        <v>499</v>
+      <c r="G107" s="51" t="s">
+        <v>677</v>
       </c>
       <c r="H107" s="38" t="s">
         <v>246</v>
@@ -9378,7 +9566,7 @@
       <c r="K107" s="38">
         <v>1</v>
       </c>
-      <c r="L107" s="62">
+      <c r="L107" s="54">
         <v>100</v>
       </c>
     </row>
@@ -9389,20 +9577,20 @@
       <c r="B108" s="41" t="s">
         <v>559</v>
       </c>
-      <c r="C108" s="58" t="s">
+      <c r="C108" s="41" t="s">
         <v>393</v>
       </c>
-      <c r="D108" s="58" t="s">
+      <c r="D108" s="41" t="s">
         <v>393</v>
       </c>
       <c r="E108" s="41" t="s">
         <v>501</v>
       </c>
-      <c r="F108" s="55" t="s">
+      <c r="F108" s="51" t="s">
         <v>336</v>
       </c>
-      <c r="G108" s="58" t="s">
-        <v>393</v>
+      <c r="G108" s="51" t="s">
+        <v>678</v>
       </c>
       <c r="H108" s="38" t="s">
         <v>246</v>
@@ -9416,7 +9604,7 @@
       <c r="K108" s="38">
         <v>1</v>
       </c>
-      <c r="L108" s="62">
+      <c r="L108" s="54">
         <v>101</v>
       </c>
     </row>
@@ -9427,20 +9615,20 @@
       <c r="B109" s="41" t="s">
         <v>559</v>
       </c>
-      <c r="C109" s="54" t="s">
+      <c r="C109" s="41" t="s">
         <v>502</v>
       </c>
-      <c r="D109" s="54" t="s">
+      <c r="D109" s="41" t="s">
         <v>502</v>
       </c>
       <c r="E109" s="41" t="s">
         <v>503</v>
       </c>
-      <c r="F109" s="55" t="s">
+      <c r="F109" s="51" t="s">
         <v>336</v>
       </c>
-      <c r="G109" s="54" t="s">
-        <v>502</v>
+      <c r="G109" s="51" t="s">
+        <v>679</v>
       </c>
       <c r="H109" s="38" t="s">
         <v>246</v>
@@ -9454,7 +9642,7 @@
       <c r="K109" s="38">
         <v>1</v>
       </c>
-      <c r="L109" s="62">
+      <c r="L109" s="54">
         <v>102</v>
       </c>
     </row>
@@ -9465,20 +9653,20 @@
       <c r="B110" s="41" t="s">
         <v>559</v>
       </c>
-      <c r="C110" s="54" t="s">
+      <c r="C110" s="41" t="s">
         <v>504</v>
       </c>
-      <c r="D110" s="54" t="s">
+      <c r="D110" s="41" t="s">
         <v>504</v>
       </c>
       <c r="E110" s="41" t="s">
         <v>505</v>
       </c>
-      <c r="F110" s="55" t="s">
+      <c r="F110" s="51" t="s">
         <v>336</v>
       </c>
-      <c r="G110" s="54" t="s">
-        <v>504</v>
+      <c r="G110" s="51" t="s">
+        <v>680</v>
       </c>
       <c r="H110" s="38" t="s">
         <v>246</v>
@@ -9492,7 +9680,7 @@
       <c r="K110" s="38">
         <v>1</v>
       </c>
-      <c r="L110" s="62">
+      <c r="L110" s="54">
         <v>103</v>
       </c>
     </row>
@@ -9503,20 +9691,20 @@
       <c r="B111" s="41" t="s">
         <v>559</v>
       </c>
-      <c r="C111" s="58" t="s">
+      <c r="C111" s="41" t="s">
         <v>402</v>
       </c>
-      <c r="D111" s="58" t="s">
+      <c r="D111" s="41" t="s">
         <v>402</v>
       </c>
       <c r="E111" s="41" t="s">
         <v>506</v>
       </c>
-      <c r="F111" s="55" t="s">
+      <c r="F111" s="51" t="s">
         <v>336</v>
       </c>
-      <c r="G111" s="58" t="s">
-        <v>402</v>
+      <c r="G111" s="51" t="s">
+        <v>681</v>
       </c>
       <c r="H111" s="38" t="s">
         <v>246</v>
@@ -9530,7 +9718,7 @@
       <c r="K111" s="38">
         <v>1</v>
       </c>
-      <c r="L111" s="62">
+      <c r="L111" s="54">
         <v>104</v>
       </c>
     </row>
@@ -9541,20 +9729,20 @@
       <c r="B112" s="41" t="s">
         <v>559</v>
       </c>
-      <c r="C112" s="54" t="s">
+      <c r="C112" s="41" t="s">
         <v>405</v>
       </c>
-      <c r="D112" s="54" t="s">
+      <c r="D112" s="41" t="s">
         <v>405</v>
       </c>
       <c r="E112" s="41" t="s">
         <v>507</v>
       </c>
-      <c r="F112" s="55" t="s">
+      <c r="F112" s="51" t="s">
         <v>336</v>
       </c>
-      <c r="G112" s="54" t="s">
-        <v>405</v>
+      <c r="G112" s="51" t="s">
+        <v>682</v>
       </c>
       <c r="H112" s="38" t="s">
         <v>246</v>
@@ -9568,7 +9756,7 @@
       <c r="K112" s="38">
         <v>1</v>
       </c>
-      <c r="L112" s="62">
+      <c r="L112" s="54">
         <v>105</v>
       </c>
     </row>
@@ -9579,20 +9767,20 @@
       <c r="B113" s="41" t="s">
         <v>559</v>
       </c>
-      <c r="C113" s="54" t="s">
+      <c r="C113" s="41" t="s">
         <v>408</v>
       </c>
-      <c r="D113" s="54" t="s">
+      <c r="D113" s="41" t="s">
         <v>408</v>
       </c>
       <c r="E113" s="41" t="s">
         <v>508</v>
       </c>
-      <c r="F113" s="55" t="s">
+      <c r="F113" s="51" t="s">
         <v>336</v>
       </c>
-      <c r="G113" s="54" t="s">
-        <v>408</v>
+      <c r="G113" s="51" t="s">
+        <v>683</v>
       </c>
       <c r="H113" s="38" t="s">
         <v>246</v>
@@ -9606,7 +9794,7 @@
       <c r="K113" s="38">
         <v>1</v>
       </c>
-      <c r="L113" s="62">
+      <c r="L113" s="54">
         <v>106</v>
       </c>
     </row>
@@ -9617,20 +9805,20 @@
       <c r="B114" s="41" t="s">
         <v>559</v>
       </c>
-      <c r="C114" s="59" t="s">
+      <c r="C114" s="41" t="s">
         <v>509</v>
       </c>
-      <c r="D114" s="59" t="s">
+      <c r="D114" s="41" t="s">
         <v>509</v>
       </c>
       <c r="E114" s="41" t="s">
         <v>510</v>
       </c>
-      <c r="F114" s="55" t="s">
+      <c r="F114" s="51" t="s">
         <v>336</v>
       </c>
-      <c r="G114" s="59" t="s">
-        <v>509</v>
+      <c r="G114" s="51" t="s">
+        <v>684</v>
       </c>
       <c r="H114" s="38" t="s">
         <v>246</v>
@@ -9644,7 +9832,7 @@
       <c r="K114" s="38">
         <v>1</v>
       </c>
-      <c r="L114" s="62">
+      <c r="L114" s="54">
         <v>107</v>
       </c>
     </row>
@@ -9655,20 +9843,20 @@
       <c r="B115" s="41" t="s">
         <v>559</v>
       </c>
-      <c r="C115" s="58" t="s">
+      <c r="C115" s="41" t="s">
         <v>414</v>
       </c>
-      <c r="D115" s="58" t="s">
+      <c r="D115" s="41" t="s">
         <v>414</v>
       </c>
       <c r="E115" s="41" t="s">
         <v>511</v>
       </c>
-      <c r="F115" s="55" t="s">
+      <c r="F115" s="51" t="s">
         <v>336</v>
       </c>
-      <c r="G115" s="58" t="s">
-        <v>414</v>
+      <c r="G115" s="51" t="s">
+        <v>685</v>
       </c>
       <c r="H115" s="38" t="s">
         <v>246</v>
@@ -9682,7 +9870,7 @@
       <c r="K115" s="38">
         <v>1</v>
       </c>
-      <c r="L115" s="62">
+      <c r="L115" s="54">
         <v>108</v>
       </c>
     </row>
@@ -9693,20 +9881,20 @@
       <c r="B116" s="41" t="s">
         <v>559</v>
       </c>
-      <c r="C116" s="54" t="s">
+      <c r="C116" s="41" t="s">
         <v>417</v>
       </c>
-      <c r="D116" s="54" t="s">
+      <c r="D116" s="41" t="s">
         <v>417</v>
       </c>
       <c r="E116" s="41" t="s">
         <v>512</v>
       </c>
-      <c r="F116" s="55" t="s">
+      <c r="F116" s="51" t="s">
         <v>336</v>
       </c>
-      <c r="G116" s="54" t="s">
-        <v>417</v>
+      <c r="G116" s="51" t="s">
+        <v>686</v>
       </c>
       <c r="H116" s="38" t="s">
         <v>246</v>
@@ -9720,7 +9908,7 @@
       <c r="K116" s="38">
         <v>1</v>
       </c>
-      <c r="L116" s="62">
+      <c r="L116" s="54">
         <v>109</v>
       </c>
     </row>
@@ -9731,20 +9919,20 @@
       <c r="B117" s="41" t="s">
         <v>559</v>
       </c>
-      <c r="C117" s="54" t="s">
+      <c r="C117" s="41" t="s">
         <v>513</v>
       </c>
-      <c r="D117" s="54" t="s">
+      <c r="D117" s="41" t="s">
         <v>513</v>
       </c>
       <c r="E117" s="41" t="s">
         <v>514</v>
       </c>
-      <c r="F117" s="55" t="s">
+      <c r="F117" s="51" t="s">
         <v>336</v>
       </c>
-      <c r="G117" s="54" t="s">
-        <v>513</v>
+      <c r="G117" s="51" t="s">
+        <v>687</v>
       </c>
       <c r="H117" s="38" t="s">
         <v>246</v>
@@ -9758,7 +9946,7 @@
       <c r="K117" s="38">
         <v>1</v>
       </c>
-      <c r="L117" s="62">
+      <c r="L117" s="54">
         <v>110</v>
       </c>
     </row>
@@ -9769,20 +9957,20 @@
       <c r="B118" s="41" t="s">
         <v>559</v>
       </c>
-      <c r="C118" s="53" t="s">
+      <c r="C118" s="41" t="s">
         <v>515</v>
       </c>
-      <c r="D118" s="53" t="s">
+      <c r="D118" s="41" t="s">
         <v>515</v>
       </c>
       <c r="E118" s="41" t="s">
         <v>516</v>
       </c>
-      <c r="F118" s="55" t="s">
+      <c r="F118" s="51" t="s">
         <v>334</v>
       </c>
-      <c r="G118" s="53" t="s">
-        <v>515</v>
+      <c r="G118" s="51" t="s">
+        <v>688</v>
       </c>
       <c r="H118" s="38" t="s">
         <v>246</v>
@@ -9796,7 +9984,7 @@
       <c r="K118" s="38">
         <v>1</v>
       </c>
-      <c r="L118" s="62">
+      <c r="L118" s="54">
         <v>111</v>
       </c>
     </row>
@@ -9807,20 +9995,20 @@
       <c r="B119" s="41" t="s">
         <v>554</v>
       </c>
-      <c r="C119" s="54" t="s">
+      <c r="C119" s="41" t="s">
         <v>529</v>
       </c>
-      <c r="D119" s="54" t="s">
+      <c r="D119" s="41" t="s">
         <v>529</v>
       </c>
       <c r="E119" s="41" t="s">
         <v>530</v>
       </c>
-      <c r="F119" s="55" t="s">
+      <c r="F119" s="51" t="s">
         <v>336</v>
       </c>
-      <c r="G119" s="54" t="s">
-        <v>529</v>
+      <c r="G119" s="51" t="s">
+        <v>689</v>
       </c>
       <c r="H119" s="38" t="s">
         <v>246</v>
@@ -9834,7 +10022,7 @@
       <c r="K119" s="38">
         <v>1</v>
       </c>
-      <c r="L119" s="62">
+      <c r="L119" s="54">
         <v>112</v>
       </c>
     </row>
@@ -9845,20 +10033,20 @@
       <c r="B120" s="41" t="s">
         <v>554</v>
       </c>
-      <c r="C120" s="54" t="s">
+      <c r="C120" s="41" t="s">
         <v>542</v>
       </c>
-      <c r="D120" s="54" t="s">
+      <c r="D120" s="41" t="s">
         <v>542</v>
       </c>
       <c r="E120" s="41" t="s">
         <v>539</v>
       </c>
-      <c r="F120" s="55" t="s">
+      <c r="F120" s="51" t="s">
         <v>334</v>
       </c>
-      <c r="G120" s="54" t="s">
-        <v>542</v>
+      <c r="G120" s="51" t="s">
+        <v>690</v>
       </c>
       <c r="H120" s="38" t="s">
         <v>246</v>
@@ -9872,13 +10060,13 @@
       <c r="K120" s="38">
         <v>1</v>
       </c>
-      <c r="L120" s="62">
+      <c r="L120" s="54">
         <v>113</v>
       </c>
     </row>
     <row r="121" spans="1:13" s="41" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="60" t="s">
-        <v>601</v>
+      <c r="A121" s="52" t="s">
+        <v>577</v>
       </c>
       <c r="B121" s="44" t="s">
         <v>549</v>
@@ -9894,8 +10082,8 @@
       <c r="I121" s="46"/>
       <c r="J121" s="46"/>
       <c r="K121" s="46"/>
-      <c r="L121" s="61"/>
-      <c r="M121" s="61"/>
+      <c r="L121" s="53"/>
+      <c r="M121" s="53"/>
     </row>
     <row r="122" spans="1:13" s="41" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="40">
@@ -9904,10 +10092,10 @@
       <c r="B122" s="41" t="s">
         <v>558</v>
       </c>
-      <c r="C122" s="68" t="s">
+      <c r="C122" s="41" t="s">
         <v>478</v>
       </c>
-      <c r="D122" s="68" t="s">
+      <c r="D122" s="41" t="s">
         <v>479</v>
       </c>
       <c r="E122" s="41" t="s">
@@ -9916,8 +10104,8 @@
       <c r="F122" s="41" t="s">
         <v>334</v>
       </c>
-      <c r="G122" s="68" t="s">
-        <v>479</v>
+      <c r="G122" s="51" t="s">
+        <v>691</v>
       </c>
       <c r="H122" s="38" t="s">
         <v>246</v>
@@ -9942,20 +10130,20 @@
       <c r="B123" s="41" t="s">
         <v>560</v>
       </c>
-      <c r="C123" s="54" t="s">
+      <c r="C123" s="41" t="s">
         <v>426</v>
       </c>
-      <c r="D123" s="54" t="s">
+      <c r="D123" s="41" t="s">
         <v>544</v>
       </c>
       <c r="E123" s="41" t="s">
         <v>517</v>
       </c>
-      <c r="F123" s="55" t="s">
+      <c r="F123" s="51" t="s">
         <v>336</v>
       </c>
-      <c r="G123" s="54" t="s">
-        <v>544</v>
+      <c r="G123" s="51" t="s">
+        <v>692</v>
       </c>
       <c r="H123" s="38" t="s">
         <v>246</v>
@@ -9969,7 +10157,7 @@
       <c r="K123" s="38">
         <v>1</v>
       </c>
-      <c r="L123" s="62">
+      <c r="L123" s="54">
         <v>115</v>
       </c>
     </row>
@@ -9980,20 +10168,20 @@
       <c r="B124" s="41" t="s">
         <v>560</v>
       </c>
-      <c r="C124" s="54" t="s">
+      <c r="C124" s="41" t="s">
         <v>429</v>
       </c>
-      <c r="D124" s="54" t="s">
+      <c r="D124" s="41" t="s">
         <v>543</v>
       </c>
       <c r="E124" s="41" t="s">
         <v>518</v>
       </c>
-      <c r="F124" s="55" t="s">
+      <c r="F124" s="51" t="s">
         <v>336</v>
       </c>
-      <c r="G124" s="54" t="s">
-        <v>543</v>
+      <c r="G124" s="51" t="s">
+        <v>693</v>
       </c>
       <c r="H124" s="38" t="s">
         <v>246</v>
@@ -10007,7 +10195,7 @@
       <c r="K124" s="38">
         <v>1</v>
       </c>
-      <c r="L124" s="62">
+      <c r="L124" s="54">
         <v>116</v>
       </c>
     </row>
@@ -10018,20 +10206,20 @@
       <c r="B125" s="41" t="s">
         <v>560</v>
       </c>
-      <c r="C125" s="54" t="s">
+      <c r="C125" s="41" t="s">
         <v>519</v>
       </c>
-      <c r="D125" s="54" t="s">
+      <c r="D125" s="41" t="s">
         <v>545</v>
       </c>
       <c r="E125" s="41" t="s">
         <v>520</v>
       </c>
-      <c r="F125" s="55" t="s">
+      <c r="F125" s="51" t="s">
         <v>336</v>
       </c>
-      <c r="G125" s="54" t="s">
-        <v>545</v>
+      <c r="G125" s="51" t="s">
+        <v>694</v>
       </c>
       <c r="H125" s="38" t="s">
         <v>246</v>
@@ -10045,7 +10233,7 @@
       <c r="K125" s="38">
         <v>1</v>
       </c>
-      <c r="L125" s="62">
+      <c r="L125" s="54">
         <v>117</v>
       </c>
     </row>
@@ -10056,20 +10244,20 @@
       <c r="B126" s="41" t="s">
         <v>560</v>
       </c>
-      <c r="C126" s="54" t="s">
+      <c r="C126" s="41" t="s">
         <v>521</v>
       </c>
-      <c r="D126" s="54" t="s">
+      <c r="D126" s="41" t="s">
         <v>546</v>
       </c>
       <c r="E126" s="41" t="s">
         <v>522</v>
       </c>
-      <c r="F126" s="55" t="s">
+      <c r="F126" s="51" t="s">
         <v>336</v>
       </c>
-      <c r="G126" s="54" t="s">
-        <v>546</v>
+      <c r="G126" s="51" t="s">
+        <v>695</v>
       </c>
       <c r="H126" s="38" t="s">
         <v>246</v>
@@ -10083,7 +10271,7 @@
       <c r="K126" s="38">
         <v>1</v>
       </c>
-      <c r="L126" s="62">
+      <c r="L126" s="54">
         <v>118</v>
       </c>
     </row>
@@ -10094,20 +10282,20 @@
       <c r="B127" s="41" t="s">
         <v>560</v>
       </c>
-      <c r="C127" s="54" t="s">
+      <c r="C127" s="41" t="s">
         <v>438</v>
       </c>
-      <c r="D127" s="54" t="s">
+      <c r="D127" s="41" t="s">
         <v>547</v>
       </c>
       <c r="E127" s="41" t="s">
         <v>523</v>
       </c>
-      <c r="F127" s="55" t="s">
+      <c r="F127" s="51" t="s">
         <v>336</v>
       </c>
-      <c r="G127" s="54" t="s">
-        <v>547</v>
+      <c r="G127" s="51" t="s">
+        <v>696</v>
       </c>
       <c r="H127" s="38" t="s">
         <v>246</v>
@@ -10121,7 +10309,7 @@
       <c r="K127" s="38">
         <v>1</v>
       </c>
-      <c r="L127" s="62">
+      <c r="L127" s="54">
         <v>119</v>
       </c>
     </row>
@@ -10132,20 +10320,20 @@
       <c r="B128" s="41" t="s">
         <v>560</v>
       </c>
-      <c r="C128" s="54" t="s">
+      <c r="C128" s="41" t="s">
         <v>524</v>
       </c>
-      <c r="D128" s="54" t="s">
+      <c r="D128" s="41" t="s">
         <v>548</v>
       </c>
       <c r="E128" s="41" t="s">
         <v>525</v>
       </c>
-      <c r="F128" s="55" t="s">
+      <c r="F128" s="51" t="s">
         <v>336</v>
       </c>
-      <c r="G128" s="54" t="s">
-        <v>548</v>
+      <c r="G128" s="51" t="s">
+        <v>697</v>
       </c>
       <c r="H128" s="38" t="s">
         <v>246</v>
@@ -10159,7 +10347,7 @@
       <c r="K128" s="38">
         <v>1</v>
       </c>
-      <c r="L128" s="62">
+      <c r="L128" s="54">
         <v>120</v>
       </c>
     </row>
@@ -10170,20 +10358,20 @@
       <c r="B129" s="41" t="s">
         <v>560</v>
       </c>
-      <c r="C129" s="54" t="s">
+      <c r="C129" s="41" t="s">
         <v>526</v>
       </c>
-      <c r="D129" s="54" t="s">
+      <c r="D129" s="41" t="s">
         <v>527</v>
       </c>
       <c r="E129" s="41" t="s">
         <v>528</v>
       </c>
-      <c r="F129" s="55" t="s">
+      <c r="F129" s="51" t="s">
         <v>334</v>
       </c>
-      <c r="G129" s="54" t="s">
-        <v>527</v>
+      <c r="G129" s="51" t="s">
+        <v>698</v>
       </c>
       <c r="H129" s="38" t="s">
         <v>246</v>
@@ -10197,13 +10385,13 @@
       <c r="K129" s="38">
         <v>1</v>
       </c>
-      <c r="L129" s="62">
+      <c r="L129" s="54">
         <v>121</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:L26" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="E2">
     <cfRule type="duplicateValues" dxfId="9" priority="414"/>
   </conditionalFormatting>
@@ -11859,20 +12047,20 @@
       </c>
     </row>
     <row r="43" spans="1:12" s="2" customFormat="1" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="A43" s="69" t="s">
+      <c r="A43" s="57" t="s">
         <v>167</v>
       </c>
-      <c r="B43" s="70"/>
-      <c r="C43" s="70"/>
-      <c r="D43" s="70"/>
-      <c r="E43" s="70"/>
-      <c r="F43" s="70"/>
-      <c r="G43" s="70"/>
-      <c r="H43" s="70"/>
-      <c r="I43" s="70"/>
-      <c r="J43" s="70"/>
-      <c r="K43" s="70"/>
-      <c r="L43" s="71"/>
+      <c r="B43" s="58"/>
+      <c r="C43" s="58"/>
+      <c r="D43" s="58"/>
+      <c r="E43" s="58"/>
+      <c r="F43" s="58"/>
+      <c r="G43" s="58"/>
+      <c r="H43" s="58"/>
+      <c r="I43" s="58"/>
+      <c r="J43" s="58"/>
+      <c r="K43" s="58"/>
+      <c r="L43" s="59"/>
     </row>
     <row r="44" spans="1:12" s="2" customFormat="1" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A44" s="12">
@@ -12746,14 +12934,14 @@
         <v>252</v>
       </c>
       <c r="F1" s="36" t="s">
-        <v>593</v>
+        <v>569</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>534</v>
       </c>
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="55" t="s">
         <v>245</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -12766,14 +12954,14 @@
         <v>253</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>594</v>
+        <v>570</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="B3" s="63" t="s">
+      <c r="B3" s="55" t="s">
         <v>245</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -12786,7 +12974,7 @@
         <v>253</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>594</v>
+        <v>570</v>
       </c>
     </row>
   </sheetData>
@@ -12893,7 +13081,7 @@
         <v>564</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>595</v>
+        <v>571</v>
       </c>
       <c r="K2" s="6" t="s">
         <v>28</v>
@@ -12905,7 +13093,7 @@
         <v>28</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>592</v>
+        <v>568</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">

--- a/src/test/resources/Run_Manager_Change_Activity.xlsx
+++ b/src/test/resources/Run_Manager_Change_Activity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\EjarUAT\EJAR_UAT\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E26D318-039F-44CA-957C-4E25286916B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB9AC946-0C8E-4F58-9061-435C3B5B7CE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="697" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1942" uniqueCount="699">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1942" uniqueCount="700">
   <si>
     <t>P_Key</t>
   </si>
@@ -4639,6 +4639,9 @@
   </si>
   <si>
     <t>ChangeActivity_TC_97</t>
+  </si>
+  <si>
+    <t>Regression</t>
   </si>
 </sst>
 </file>
@@ -5546,11 +5549,11 @@
   <dimension ref="A1:M129"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="61" zoomScaleNormal="59" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B110" activePane="bottomRight" state="frozen"/>
       <selection activeCell="G5" sqref="G5"/>
       <selection pane="topRight" activeCell="G5" sqref="G5"/>
       <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
-      <selection pane="bottomRight" activeCell="F133" sqref="F133"/>
+      <selection pane="bottomRight" activeCell="G127" sqref="G127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6624,7 +6627,7 @@
         <v>246</v>
       </c>
       <c r="I28" s="38" t="s">
-        <v>15</v>
+        <v>699</v>
       </c>
       <c r="J28" s="42" t="s">
         <v>28</v>
@@ -6662,7 +6665,7 @@
         <v>246</v>
       </c>
       <c r="I29" s="38" t="s">
-        <v>15</v>
+        <v>699</v>
       </c>
       <c r="J29" s="42" t="s">
         <v>28</v>
@@ -6700,7 +6703,7 @@
         <v>246</v>
       </c>
       <c r="I30" s="38" t="s">
-        <v>15</v>
+        <v>699</v>
       </c>
       <c r="J30" s="42" t="s">
         <v>28</v>
@@ -6738,7 +6741,7 @@
         <v>246</v>
       </c>
       <c r="I31" s="38" t="s">
-        <v>15</v>
+        <v>699</v>
       </c>
       <c r="J31" s="42" t="s">
         <v>28</v>
@@ -6776,7 +6779,7 @@
         <v>246</v>
       </c>
       <c r="I32" s="38" t="s">
-        <v>15</v>
+        <v>699</v>
       </c>
       <c r="J32" s="42" t="s">
         <v>28</v>
@@ -6814,7 +6817,7 @@
         <v>246</v>
       </c>
       <c r="I33" s="38" t="s">
-        <v>15</v>
+        <v>699</v>
       </c>
       <c r="J33" s="42" t="s">
         <v>28</v>
@@ -6852,7 +6855,7 @@
         <v>246</v>
       </c>
       <c r="I34" s="38" t="s">
-        <v>15</v>
+        <v>699</v>
       </c>
       <c r="J34" s="42" t="s">
         <v>28</v>
@@ -6890,7 +6893,7 @@
         <v>246</v>
       </c>
       <c r="I35" s="38" t="s">
-        <v>15</v>
+        <v>699</v>
       </c>
       <c r="J35" s="42" t="s">
         <v>28</v>
@@ -6928,7 +6931,7 @@
         <v>246</v>
       </c>
       <c r="I36" s="38" t="s">
-        <v>15</v>
+        <v>699</v>
       </c>
       <c r="J36" s="42" t="s">
         <v>28</v>
@@ -6966,7 +6969,7 @@
         <v>246</v>
       </c>
       <c r="I37" s="38" t="s">
-        <v>15</v>
+        <v>699</v>
       </c>
       <c r="J37" s="42" t="s">
         <v>28</v>
@@ -7004,7 +7007,7 @@
         <v>246</v>
       </c>
       <c r="I38" s="38" t="s">
-        <v>15</v>
+        <v>699</v>
       </c>
       <c r="J38" s="42" t="s">
         <v>28</v>
@@ -7042,7 +7045,7 @@
         <v>246</v>
       </c>
       <c r="I39" s="38" t="s">
-        <v>15</v>
+        <v>699</v>
       </c>
       <c r="J39" s="42" t="s">
         <v>28</v>
@@ -7080,7 +7083,7 @@
         <v>246</v>
       </c>
       <c r="I40" s="38" t="s">
-        <v>15</v>
+        <v>699</v>
       </c>
       <c r="J40" s="42" t="s">
         <v>28</v>
@@ -7118,7 +7121,7 @@
         <v>246</v>
       </c>
       <c r="I41" s="38" t="s">
-        <v>15</v>
+        <v>699</v>
       </c>
       <c r="J41" s="42" t="s">
         <v>28</v>
@@ -7156,7 +7159,7 @@
         <v>246</v>
       </c>
       <c r="I42" s="38" t="s">
-        <v>15</v>
+        <v>699</v>
       </c>
       <c r="J42" s="42" t="s">
         <v>28</v>
@@ -7194,7 +7197,7 @@
         <v>246</v>
       </c>
       <c r="I43" s="38" t="s">
-        <v>15</v>
+        <v>699</v>
       </c>
       <c r="J43" s="42" t="s">
         <v>28</v>
@@ -7232,7 +7235,7 @@
         <v>246</v>
       </c>
       <c r="I44" s="38" t="s">
-        <v>15</v>
+        <v>699</v>
       </c>
       <c r="J44" s="42" t="s">
         <v>28</v>
@@ -7270,7 +7273,7 @@
         <v>246</v>
       </c>
       <c r="I45" s="38" t="s">
-        <v>15</v>
+        <v>699</v>
       </c>
       <c r="J45" s="42" t="s">
         <v>28</v>
@@ -7308,7 +7311,7 @@
         <v>246</v>
       </c>
       <c r="I46" s="38" t="s">
-        <v>15</v>
+        <v>699</v>
       </c>
       <c r="J46" s="42" t="s">
         <v>28</v>
@@ -7346,7 +7349,7 @@
         <v>246</v>
       </c>
       <c r="I47" s="38" t="s">
-        <v>15</v>
+        <v>699</v>
       </c>
       <c r="J47" s="42" t="s">
         <v>28</v>
@@ -7384,7 +7387,7 @@
         <v>246</v>
       </c>
       <c r="I48" s="38" t="s">
-        <v>15</v>
+        <v>699</v>
       </c>
       <c r="J48" s="42" t="s">
         <v>28</v>
@@ -7443,7 +7446,7 @@
         <v>246</v>
       </c>
       <c r="I50" s="38" t="s">
-        <v>15</v>
+        <v>699</v>
       </c>
       <c r="J50" s="56" t="s">
         <v>28</v>
@@ -7481,7 +7484,7 @@
         <v>246</v>
       </c>
       <c r="I51" s="38" t="s">
-        <v>15</v>
+        <v>699</v>
       </c>
       <c r="J51" s="56" t="s">
         <v>28</v>
@@ -7519,7 +7522,7 @@
         <v>246</v>
       </c>
       <c r="I52" s="38" t="s">
-        <v>15</v>
+        <v>699</v>
       </c>
       <c r="J52" s="56" t="s">
         <v>28</v>
@@ -7557,7 +7560,7 @@
         <v>246</v>
       </c>
       <c r="I53" s="38" t="s">
-        <v>15</v>
+        <v>699</v>
       </c>
       <c r="J53" s="56" t="s">
         <v>28</v>
@@ -7595,7 +7598,7 @@
         <v>246</v>
       </c>
       <c r="I54" s="38" t="s">
-        <v>15</v>
+        <v>699</v>
       </c>
       <c r="J54" s="56" t="s">
         <v>28</v>
@@ -7633,7 +7636,7 @@
         <v>246</v>
       </c>
       <c r="I55" s="38" t="s">
-        <v>15</v>
+        <v>699</v>
       </c>
       <c r="J55" s="56" t="s">
         <v>28</v>
@@ -7671,7 +7674,7 @@
         <v>246</v>
       </c>
       <c r="I56" s="38" t="s">
-        <v>15</v>
+        <v>699</v>
       </c>
       <c r="J56" s="56" t="s">
         <v>28</v>
@@ -7709,7 +7712,7 @@
         <v>246</v>
       </c>
       <c r="I57" s="38" t="s">
-        <v>15</v>
+        <v>699</v>
       </c>
       <c r="J57" s="56" t="s">
         <v>28</v>
@@ -7747,7 +7750,7 @@
         <v>246</v>
       </c>
       <c r="I58" s="38" t="s">
-        <v>15</v>
+        <v>699</v>
       </c>
       <c r="J58" s="56" t="s">
         <v>28</v>
@@ -7785,7 +7788,7 @@
         <v>246</v>
       </c>
       <c r="I59" s="38" t="s">
-        <v>15</v>
+        <v>699</v>
       </c>
       <c r="J59" s="56" t="s">
         <v>28</v>
@@ -7823,7 +7826,7 @@
         <v>246</v>
       </c>
       <c r="I60" s="38" t="s">
-        <v>15</v>
+        <v>699</v>
       </c>
       <c r="J60" s="56" t="s">
         <v>28</v>
@@ -7861,7 +7864,7 @@
         <v>246</v>
       </c>
       <c r="I61" s="38" t="s">
-        <v>15</v>
+        <v>699</v>
       </c>
       <c r="J61" s="56" t="s">
         <v>28</v>
@@ -7899,7 +7902,7 @@
         <v>246</v>
       </c>
       <c r="I62" s="38" t="s">
-        <v>15</v>
+        <v>699</v>
       </c>
       <c r="J62" s="56" t="s">
         <v>28</v>
@@ -7937,7 +7940,7 @@
         <v>246</v>
       </c>
       <c r="I63" s="38" t="s">
-        <v>15</v>
+        <v>699</v>
       </c>
       <c r="J63" s="56" t="s">
         <v>28</v>
@@ -7975,7 +7978,7 @@
         <v>246</v>
       </c>
       <c r="I64" s="38" t="s">
-        <v>15</v>
+        <v>699</v>
       </c>
       <c r="J64" s="56" t="s">
         <v>28</v>
@@ -8013,7 +8016,7 @@
         <v>246</v>
       </c>
       <c r="I65" s="38" t="s">
-        <v>15</v>
+        <v>699</v>
       </c>
       <c r="J65" s="56" t="s">
         <v>28</v>
@@ -8051,7 +8054,7 @@
         <v>246</v>
       </c>
       <c r="I66" s="38" t="s">
-        <v>15</v>
+        <v>699</v>
       </c>
       <c r="J66" s="56" t="s">
         <v>28</v>
@@ -8089,7 +8092,7 @@
         <v>246</v>
       </c>
       <c r="I67" s="38" t="s">
-        <v>15</v>
+        <v>699</v>
       </c>
       <c r="J67" s="56" t="s">
         <v>28</v>
@@ -8127,7 +8130,7 @@
         <v>246</v>
       </c>
       <c r="I68" s="38" t="s">
-        <v>15</v>
+        <v>699</v>
       </c>
       <c r="J68" s="56" t="s">
         <v>28</v>
@@ -8186,7 +8189,7 @@
         <v>246</v>
       </c>
       <c r="I70" s="38" t="s">
-        <v>15</v>
+        <v>699</v>
       </c>
       <c r="J70" s="56" t="s">
         <v>28</v>
@@ -8224,7 +8227,7 @@
         <v>246</v>
       </c>
       <c r="I71" s="38" t="s">
-        <v>15</v>
+        <v>699</v>
       </c>
       <c r="J71" s="56" t="s">
         <v>28</v>
@@ -8262,7 +8265,7 @@
         <v>246</v>
       </c>
       <c r="I72" s="38" t="s">
-        <v>15</v>
+        <v>699</v>
       </c>
       <c r="J72" s="56" t="s">
         <v>28</v>
@@ -8300,7 +8303,7 @@
         <v>246</v>
       </c>
       <c r="I73" s="38" t="s">
-        <v>15</v>
+        <v>699</v>
       </c>
       <c r="J73" s="56" t="s">
         <v>28</v>
@@ -8338,7 +8341,7 @@
         <v>246</v>
       </c>
       <c r="I74" s="38" t="s">
-        <v>15</v>
+        <v>699</v>
       </c>
       <c r="J74" s="56" t="s">
         <v>28</v>
@@ -8376,7 +8379,7 @@
         <v>246</v>
       </c>
       <c r="I75" s="38" t="s">
-        <v>15</v>
+        <v>699</v>
       </c>
       <c r="J75" s="56" t="s">
         <v>28</v>
@@ -8414,7 +8417,7 @@
         <v>246</v>
       </c>
       <c r="I76" s="38" t="s">
-        <v>15</v>
+        <v>699</v>
       </c>
       <c r="J76" s="56" t="s">
         <v>28</v>
@@ -8452,7 +8455,7 @@
         <v>246</v>
       </c>
       <c r="I77" s="38" t="s">
-        <v>15</v>
+        <v>699</v>
       </c>
       <c r="J77" s="56" t="s">
         <v>28</v>
@@ -8490,7 +8493,7 @@
         <v>246</v>
       </c>
       <c r="I78" s="38" t="s">
-        <v>15</v>
+        <v>699</v>
       </c>
       <c r="J78" s="56" t="s">
         <v>28</v>
@@ -8549,7 +8552,7 @@
         <v>246</v>
       </c>
       <c r="I80" s="38" t="s">
-        <v>15</v>
+        <v>699</v>
       </c>
       <c r="J80" s="38" t="s">
         <v>28</v>
@@ -8587,7 +8590,7 @@
         <v>246</v>
       </c>
       <c r="I81" s="38" t="s">
-        <v>15</v>
+        <v>699</v>
       </c>
       <c r="J81" s="38" t="s">
         <v>28</v>
@@ -8625,7 +8628,7 @@
         <v>246</v>
       </c>
       <c r="I82" s="38" t="s">
-        <v>15</v>
+        <v>699</v>
       </c>
       <c r="J82" s="38" t="s">
         <v>28</v>
@@ -8663,7 +8666,7 @@
         <v>246</v>
       </c>
       <c r="I83" s="38" t="s">
-        <v>15</v>
+        <v>699</v>
       </c>
       <c r="J83" s="38" t="s">
         <v>28</v>
@@ -8701,7 +8704,7 @@
         <v>246</v>
       </c>
       <c r="I84" s="38" t="s">
-        <v>15</v>
+        <v>699</v>
       </c>
       <c r="J84" s="38" t="s">
         <v>28</v>
@@ -8739,7 +8742,7 @@
         <v>246</v>
       </c>
       <c r="I85" s="38" t="s">
-        <v>15</v>
+        <v>699</v>
       </c>
       <c r="J85" s="38" t="s">
         <v>28</v>
@@ -8777,7 +8780,7 @@
         <v>246</v>
       </c>
       <c r="I86" s="38" t="s">
-        <v>15</v>
+        <v>699</v>
       </c>
       <c r="J86" s="38" t="s">
         <v>28</v>
@@ -8815,7 +8818,7 @@
         <v>246</v>
       </c>
       <c r="I87" s="38" t="s">
-        <v>15</v>
+        <v>699</v>
       </c>
       <c r="J87" s="38" t="s">
         <v>28</v>
@@ -8853,7 +8856,7 @@
         <v>246</v>
       </c>
       <c r="I88" s="38" t="s">
-        <v>15</v>
+        <v>699</v>
       </c>
       <c r="J88" s="38" t="s">
         <v>28</v>
@@ -8891,7 +8894,7 @@
         <v>246</v>
       </c>
       <c r="I89" s="38" t="s">
-        <v>15</v>
+        <v>699</v>
       </c>
       <c r="J89" s="38" t="s">
         <v>28</v>
@@ -8929,7 +8932,7 @@
         <v>246</v>
       </c>
       <c r="I90" s="38" t="s">
-        <v>15</v>
+        <v>699</v>
       </c>
       <c r="J90" s="38" t="s">
         <v>28</v>
@@ -8967,7 +8970,7 @@
         <v>246</v>
       </c>
       <c r="I91" s="38" t="s">
-        <v>15</v>
+        <v>699</v>
       </c>
       <c r="J91" s="38" t="s">
         <v>28</v>
@@ -9005,7 +9008,7 @@
         <v>246</v>
       </c>
       <c r="I92" s="38" t="s">
-        <v>15</v>
+        <v>699</v>
       </c>
       <c r="J92" s="38" t="s">
         <v>28</v>
@@ -9043,7 +9046,7 @@
         <v>246</v>
       </c>
       <c r="I93" s="38" t="s">
-        <v>15</v>
+        <v>699</v>
       </c>
       <c r="J93" s="38" t="s">
         <v>28</v>
@@ -9081,7 +9084,7 @@
         <v>246</v>
       </c>
       <c r="I94" s="38" t="s">
-        <v>15</v>
+        <v>699</v>
       </c>
       <c r="J94" s="38" t="s">
         <v>28</v>
@@ -9119,7 +9122,7 @@
         <v>246</v>
       </c>
       <c r="I95" s="38" t="s">
-        <v>15</v>
+        <v>699</v>
       </c>
       <c r="J95" s="38" t="s">
         <v>28</v>
@@ -9157,7 +9160,7 @@
         <v>246</v>
       </c>
       <c r="I96" s="38" t="s">
-        <v>15</v>
+        <v>699</v>
       </c>
       <c r="J96" s="38" t="s">
         <v>28</v>
@@ -9195,7 +9198,7 @@
         <v>246</v>
       </c>
       <c r="I97" s="38" t="s">
-        <v>15</v>
+        <v>699</v>
       </c>
       <c r="J97" s="38" t="s">
         <v>28</v>
@@ -9233,7 +9236,7 @@
         <v>246</v>
       </c>
       <c r="I98" s="38" t="s">
-        <v>15</v>
+        <v>699</v>
       </c>
       <c r="J98" s="38" t="s">
         <v>28</v>
@@ -9271,7 +9274,7 @@
         <v>246</v>
       </c>
       <c r="I99" s="38" t="s">
-        <v>15</v>
+        <v>699</v>
       </c>
       <c r="J99" s="38" t="s">
         <v>28</v>
@@ -9309,7 +9312,7 @@
         <v>246</v>
       </c>
       <c r="I100" s="38" t="s">
-        <v>15</v>
+        <v>699</v>
       </c>
       <c r="J100" s="38" t="s">
         <v>28</v>
@@ -9368,7 +9371,7 @@
         <v>246</v>
       </c>
       <c r="I102" s="38" t="s">
-        <v>15</v>
+        <v>699</v>
       </c>
       <c r="J102" s="38" t="s">
         <v>28</v>
@@ -9406,7 +9409,7 @@
         <v>246</v>
       </c>
       <c r="I103" s="38" t="s">
-        <v>15</v>
+        <v>699</v>
       </c>
       <c r="J103" s="38" t="s">
         <v>28</v>
@@ -9444,7 +9447,7 @@
         <v>246</v>
       </c>
       <c r="I104" s="38" t="s">
-        <v>15</v>
+        <v>699</v>
       </c>
       <c r="J104" s="38" t="s">
         <v>28</v>
@@ -9482,7 +9485,7 @@
         <v>246</v>
       </c>
       <c r="I105" s="38" t="s">
-        <v>15</v>
+        <v>699</v>
       </c>
       <c r="J105" s="38" t="s">
         <v>28</v>
@@ -9520,7 +9523,7 @@
         <v>246</v>
       </c>
       <c r="I106" s="38" t="s">
-        <v>15</v>
+        <v>699</v>
       </c>
       <c r="J106" s="38" t="s">
         <v>28</v>
@@ -9558,7 +9561,7 @@
         <v>246</v>
       </c>
       <c r="I107" s="38" t="s">
-        <v>15</v>
+        <v>699</v>
       </c>
       <c r="J107" s="38" t="s">
         <v>28</v>
@@ -9596,7 +9599,7 @@
         <v>246</v>
       </c>
       <c r="I108" s="38" t="s">
-        <v>15</v>
+        <v>699</v>
       </c>
       <c r="J108" s="38" t="s">
         <v>28</v>
@@ -9634,7 +9637,7 @@
         <v>246</v>
       </c>
       <c r="I109" s="38" t="s">
-        <v>15</v>
+        <v>699</v>
       </c>
       <c r="J109" s="38" t="s">
         <v>28</v>
@@ -9672,7 +9675,7 @@
         <v>246</v>
       </c>
       <c r="I110" s="38" t="s">
-        <v>15</v>
+        <v>699</v>
       </c>
       <c r="J110" s="38" t="s">
         <v>28</v>
@@ -9710,7 +9713,7 @@
         <v>246</v>
       </c>
       <c r="I111" s="38" t="s">
-        <v>15</v>
+        <v>699</v>
       </c>
       <c r="J111" s="38" t="s">
         <v>28</v>
@@ -9748,7 +9751,7 @@
         <v>246</v>
       </c>
       <c r="I112" s="38" t="s">
-        <v>15</v>
+        <v>699</v>
       </c>
       <c r="J112" s="38" t="s">
         <v>28</v>
@@ -9786,7 +9789,7 @@
         <v>246</v>
       </c>
       <c r="I113" s="38" t="s">
-        <v>15</v>
+        <v>699</v>
       </c>
       <c r="J113" s="38" t="s">
         <v>28</v>
@@ -9824,7 +9827,7 @@
         <v>246</v>
       </c>
       <c r="I114" s="38" t="s">
-        <v>15</v>
+        <v>699</v>
       </c>
       <c r="J114" s="38" t="s">
         <v>28</v>
@@ -9862,7 +9865,7 @@
         <v>246</v>
       </c>
       <c r="I115" s="38" t="s">
-        <v>15</v>
+        <v>699</v>
       </c>
       <c r="J115" s="38" t="s">
         <v>28</v>
@@ -9900,7 +9903,7 @@
         <v>246</v>
       </c>
       <c r="I116" s="38" t="s">
-        <v>15</v>
+        <v>699</v>
       </c>
       <c r="J116" s="38" t="s">
         <v>28</v>
@@ -9938,7 +9941,7 @@
         <v>246</v>
       </c>
       <c r="I117" s="38" t="s">
-        <v>15</v>
+        <v>699</v>
       </c>
       <c r="J117" s="38" t="s">
         <v>28</v>
@@ -9976,7 +9979,7 @@
         <v>246</v>
       </c>
       <c r="I118" s="38" t="s">
-        <v>15</v>
+        <v>699</v>
       </c>
       <c r="J118" s="38" t="s">
         <v>28</v>
@@ -10014,7 +10017,7 @@
         <v>246</v>
       </c>
       <c r="I119" s="38" t="s">
-        <v>15</v>
+        <v>699</v>
       </c>
       <c r="J119" s="38" t="s">
         <v>28</v>
@@ -10052,7 +10055,7 @@
         <v>246</v>
       </c>
       <c r="I120" s="38" t="s">
-        <v>15</v>
+        <v>699</v>
       </c>
       <c r="J120" s="38" t="s">
         <v>28</v>
@@ -10111,7 +10114,7 @@
         <v>246</v>
       </c>
       <c r="I122" s="38" t="s">
-        <v>15</v>
+        <v>699</v>
       </c>
       <c r="J122" s="38" t="s">
         <v>28</v>
@@ -10149,7 +10152,7 @@
         <v>246</v>
       </c>
       <c r="I123" s="38" t="s">
-        <v>15</v>
+        <v>699</v>
       </c>
       <c r="J123" s="38" t="s">
         <v>28</v>
@@ -10187,7 +10190,7 @@
         <v>246</v>
       </c>
       <c r="I124" s="38" t="s">
-        <v>15</v>
+        <v>699</v>
       </c>
       <c r="J124" s="38" t="s">
         <v>28</v>
@@ -10225,7 +10228,7 @@
         <v>246</v>
       </c>
       <c r="I125" s="38" t="s">
-        <v>15</v>
+        <v>699</v>
       </c>
       <c r="J125" s="38" t="s">
         <v>28</v>
@@ -10263,7 +10266,7 @@
         <v>246</v>
       </c>
       <c r="I126" s="38" t="s">
-        <v>15</v>
+        <v>699</v>
       </c>
       <c r="J126" s="38" t="s">
         <v>28</v>
@@ -10301,7 +10304,7 @@
         <v>246</v>
       </c>
       <c r="I127" s="38" t="s">
-        <v>15</v>
+        <v>699</v>
       </c>
       <c r="J127" s="38" t="s">
         <v>28</v>
@@ -10339,7 +10342,7 @@
         <v>246</v>
       </c>
       <c r="I128" s="38" t="s">
-        <v>15</v>
+        <v>699</v>
       </c>
       <c r="J128" s="38" t="s">
         <v>28</v>
@@ -10377,7 +10380,7 @@
         <v>246</v>
       </c>
       <c r="I129" s="38" t="s">
-        <v>15</v>
+        <v>699</v>
       </c>
       <c r="J129" s="38" t="s">
         <v>28</v>
